--- a/Database.xlsx
+++ b/Database.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="1014">
   <si>
     <t>SongTitle</t>
   </si>
@@ -1233,195 +1233,99 @@
     <t>_id</t>
   </si>
   <si>
-    <t>addams_family.mp3</t>
-  </si>
-  <si>
     <t>Addams Family</t>
   </si>
   <si>
-    <t>all_that.mp3</t>
-  </si>
-  <si>
     <t>All That</t>
   </si>
   <si>
-    <t>american_horror_story.mp3</t>
-  </si>
-  <si>
     <t>American Horror Story</t>
   </si>
   <si>
-    <t>andy_griffith.mp3</t>
-  </si>
-  <si>
     <t>The Andy Griffith Show</t>
   </si>
   <si>
-    <t>baywatch.mp3</t>
-  </si>
-  <si>
     <t>Baywatch</t>
   </si>
   <si>
-    <t>boy_meets_world_1.mp3</t>
-  </si>
-  <si>
     <t>Boy Meets World Season 1</t>
   </si>
   <si>
-    <t>boy_meets_world_6.mp3</t>
-  </si>
-  <si>
     <t>Boy Meets World Season 6</t>
   </si>
   <si>
-    <t>breaking_bad.mp3</t>
-  </si>
-  <si>
     <t>Breaking Bad</t>
   </si>
   <si>
-    <t>california_dreams.mp3</t>
-  </si>
-  <si>
     <t>California Dreams</t>
   </si>
   <si>
-    <t>clarissa_explains_it_all.mp3</t>
-  </si>
-  <si>
     <t>Clarissa Explains It All</t>
   </si>
   <si>
-    <t>dawsons_creek.mp3</t>
-  </si>
-  <si>
     <t>Dawsons Creek</t>
   </si>
   <si>
-    <t>dukes_of_hazzard.mp3</t>
-  </si>
-  <si>
     <t>Dukes of Hazard</t>
   </si>
   <si>
-    <t>family_matters.mp3</t>
-  </si>
-  <si>
     <t>Family Matters</t>
   </si>
   <si>
-    <t>frasier.mp3</t>
-  </si>
-  <si>
     <t>Frasier</t>
   </si>
   <si>
-    <t>fresh_prince_of_bel_air.mp3</t>
-  </si>
-  <si>
     <t>Fresh Prince of Bel Air</t>
   </si>
   <si>
-    <t>friends.mp3</t>
-  </si>
-  <si>
     <t>Friends</t>
   </si>
   <si>
-    <t>full_house.mp3</t>
-  </si>
-  <si>
     <t>Full House</t>
   </si>
   <si>
-    <t>game_of_thrones.mp3</t>
-  </si>
-  <si>
     <t>Game of Thrones</t>
   </si>
   <si>
-    <t>gilligans_island.mp3</t>
-  </si>
-  <si>
     <t>Gilligans Island</t>
   </si>
   <si>
-    <t>home_improvement.mp3</t>
-  </si>
-  <si>
     <t>Home Improvement</t>
   </si>
   <si>
-    <t>how_i_met_your_mother.mp3</t>
-  </si>
-  <si>
     <t>How I Met Your Mother</t>
   </si>
   <si>
-    <t>kenan_and_kel.mp3</t>
-  </si>
-  <si>
     <t>Kenan and Kel</t>
   </si>
   <si>
-    <t>phineas_and_ferb.mp3</t>
-  </si>
-  <si>
     <t>Phineas and Ferb</t>
   </si>
   <si>
-    <t>pink_panther.mp3</t>
-  </si>
-  <si>
     <t>Pink Panther</t>
   </si>
   <si>
-    <t>saved_by_the_bell.mp3</t>
-  </si>
-  <si>
     <t>Saved by the Bell</t>
   </si>
   <si>
-    <t>scrubs.mp3</t>
-  </si>
-  <si>
     <t>Scrubs</t>
   </si>
   <si>
-    <t>seinfeld.mp3</t>
-  </si>
-  <si>
     <t>Seinfeld</t>
   </si>
   <si>
-    <t>sex_and_the_city.mp3</t>
-  </si>
-  <si>
     <t>Sex and the City</t>
   </si>
   <si>
-    <t>step_by_step_show.mp3</t>
-  </si>
-  <si>
     <t>Step by Step (show)</t>
   </si>
   <si>
-    <t>the_walking_dead.mp3</t>
-  </si>
-  <si>
     <t>The Walking Dead</t>
   </si>
   <si>
-    <t>the_wonder_years.mp3</t>
-  </si>
-  <si>
     <t>The Wonder Years</t>
   </si>
   <si>
-    <t>the_x_files.mp3</t>
-  </si>
-  <si>
     <t>The X-Files</t>
   </si>
   <si>
@@ -1440,9 +1344,6 @@
     <t>Teenage Mutant Ninja Turtles</t>
   </si>
   <si>
-    <t>the_a_team_show.mp3</t>
-  </si>
-  <si>
     <t>The A-Team (show)</t>
   </si>
   <si>
@@ -2191,6 +2092,984 @@
   </si>
   <si>
     <t>Rockos Modern Life</t>
+  </si>
+  <si>
+    <t>Against All Odds</t>
+  </si>
+  <si>
+    <t>All or Nothing</t>
+  </si>
+  <si>
+    <t>Back That Ass Up</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>Bartender</t>
+  </si>
+  <si>
+    <t>Beat it</t>
+  </si>
+  <si>
+    <t>Big Poppa</t>
+  </si>
+  <si>
+    <t>Big Yellow Taxi</t>
+  </si>
+  <si>
+    <t>Bills, Bills, Bills</t>
+  </si>
+  <si>
+    <t>Bohemian Rhapsody</t>
+  </si>
+  <si>
+    <t>Bubbly</t>
+  </si>
+  <si>
+    <t>Bump Bump Bump</t>
+  </si>
+  <si>
+    <t>Burn it Up</t>
+  </si>
+  <si>
+    <t>Buttons</t>
+  </si>
+  <si>
+    <t>Bye Bye Bye</t>
+  </si>
+  <si>
+    <t>Cant Help Falling In Love</t>
+  </si>
+  <si>
+    <t>Careless Whisper</t>
+  </si>
+  <si>
+    <t>Changes</t>
+  </si>
+  <si>
+    <t>Country Grammar</t>
+  </si>
+  <si>
+    <t>Damaged</t>
+  </si>
+  <si>
+    <t>Dat Stick</t>
+  </si>
+  <si>
+    <t>Dont Stop Me Now</t>
+  </si>
+  <si>
+    <t>Endless Love</t>
+  </si>
+  <si>
+    <t>Genie in a Bottle</t>
+  </si>
+  <si>
+    <t>Get Like Me</t>
+  </si>
+  <si>
+    <t>Get Low</t>
+  </si>
+  <si>
+    <t>Gin and Juice</t>
+  </si>
+  <si>
+    <t>Girls Just Want to Have Fun</t>
+  </si>
+  <si>
+    <t>Girl All The Bad Guys Want</t>
+  </si>
+  <si>
+    <t>Give Me Just One Night</t>
+  </si>
+  <si>
+    <t>Heartbreak Hotel</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>Hold Back The River</t>
+  </si>
+  <si>
+    <t>Honey</t>
+  </si>
+  <si>
+    <t>Im Sprung</t>
+  </si>
+  <si>
+    <t>In Da Club</t>
+  </si>
+  <si>
+    <t>Isnt She Lovely</t>
+  </si>
+  <si>
+    <t>It Was a Good Day</t>
+  </si>
+  <si>
+    <t>I Can Love You Like That</t>
+  </si>
+  <si>
+    <t>I Drive Myself Crazy</t>
+  </si>
+  <si>
+    <t>I Just Called To Stay I Love You</t>
+  </si>
+  <si>
+    <t>I Swear</t>
+  </si>
+  <si>
+    <t>I Wanna Be Bad</t>
+  </si>
+  <si>
+    <t>I Will Always Love You</t>
+  </si>
+  <si>
+    <t>Just a Lil Bit</t>
+  </si>
+  <si>
+    <t>King of Anything</t>
+  </si>
+  <si>
+    <t>Let It Go</t>
+  </si>
+  <si>
+    <t>Like Im Gonna Lose You</t>
+  </si>
+  <si>
+    <t>Lollipop</t>
+  </si>
+  <si>
+    <t>Look at Me Now</t>
+  </si>
+  <si>
+    <t>Lucky</t>
+  </si>
+  <si>
+    <t>Man in the Mirror</t>
+  </si>
+  <si>
+    <t>Move Bitch</t>
+  </si>
+  <si>
+    <t>My Chick Bad</t>
+  </si>
+  <si>
+    <t>Dilemma</t>
+  </si>
+  <si>
+    <t>Never Gonna Give You Up</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Nothin But a G Thang</t>
+  </si>
+  <si>
+    <t>Oops I Did It Again</t>
+  </si>
+  <si>
+    <t>Realize</t>
+  </si>
+  <si>
+    <t>Right Here Waiting</t>
+  </si>
+  <si>
+    <t>Right Now (Na Na Na)</t>
+  </si>
+  <si>
+    <t>Rosa Parks</t>
+  </si>
+  <si>
+    <t>Ruff Ryder's Anthem</t>
+  </si>
+  <si>
+    <t>Salt Shaker</t>
+  </si>
+  <si>
+    <t>Say My Name</t>
+  </si>
+  <si>
+    <t>Show Stopper</t>
+  </si>
+  <si>
+    <t>Side to Side</t>
+  </si>
+  <si>
+    <t>Somebody to Love</t>
+  </si>
+  <si>
+    <t>Sorry (Blame It On Me)</t>
+  </si>
+  <si>
+    <t>Stan</t>
+  </si>
+  <si>
+    <t>Stickwitu</t>
+  </si>
+  <si>
+    <t>Still Fly</t>
+  </si>
+  <si>
+    <t>Teenage Dirtbag</t>
+  </si>
+  <si>
+    <t>The Bad Touch</t>
+  </si>
+  <si>
+    <t>The Fix</t>
+  </si>
+  <si>
+    <t>Thriller</t>
+  </si>
+  <si>
+    <t>Through the Fire</t>
+  </si>
+  <si>
+    <t>Time After Time</t>
+  </si>
+  <si>
+    <t>Toxic</t>
+  </si>
+  <si>
+    <t>Try</t>
+  </si>
+  <si>
+    <t>2 Become 1</t>
+  </si>
+  <si>
+    <t>Unbreak My Heart</t>
+  </si>
+  <si>
+    <t>Under the Bridge</t>
+  </si>
+  <si>
+    <t>Vogue</t>
+  </si>
+  <si>
+    <t>Wannabe</t>
+  </si>
+  <si>
+    <t>We Belong Together</t>
+  </si>
+  <si>
+    <t>We Fit Together</t>
+  </si>
+  <si>
+    <t>Whats Your Fantasy</t>
+  </si>
+  <si>
+    <t>Whatta Man</t>
+  </si>
+  <si>
+    <t>Phil Collins</t>
+  </si>
+  <si>
+    <t>O-Town</t>
+  </si>
+  <si>
+    <t>Juvenile</t>
+  </si>
+  <si>
+    <t>T-Pain (Akon)</t>
+  </si>
+  <si>
+    <t>The Notorious BIG</t>
+  </si>
+  <si>
+    <t>Counting Crows (Vanessa Carlton)</t>
+  </si>
+  <si>
+    <t>Destiny's Child</t>
+  </si>
+  <si>
+    <t>Queen</t>
+  </si>
+  <si>
+    <t>Colbie Caillat</t>
+  </si>
+  <si>
+    <t>B2K (P-Diddy)</t>
+  </si>
+  <si>
+    <t>R. Kelly</t>
+  </si>
+  <si>
+    <t>The Pussycat Dolls</t>
+  </si>
+  <si>
+    <t>N Sync</t>
+  </si>
+  <si>
+    <t>Elvis Presley</t>
+  </si>
+  <si>
+    <t>George Michael</t>
+  </si>
+  <si>
+    <t>Nelly</t>
+  </si>
+  <si>
+    <t>Danity Kane</t>
+  </si>
+  <si>
+    <t>Rich Chigga</t>
+  </si>
+  <si>
+    <t>Lionel Richie (Shania Twain)</t>
+  </si>
+  <si>
+    <t>Christina Aguilera</t>
+  </si>
+  <si>
+    <t>David Banner (Chris Brown, Young Joc)</t>
+  </si>
+  <si>
+    <t>Lil Jon (East Side Boyz, Yin Yan Twins)</t>
+  </si>
+  <si>
+    <t>Snoop Dogg</t>
+  </si>
+  <si>
+    <t>Cyndi Lauper</t>
+  </si>
+  <si>
+    <t>Bowling for Soup</t>
+  </si>
+  <si>
+    <t>98 Degrees</t>
+  </si>
+  <si>
+    <t>Lionel Richie</t>
+  </si>
+  <si>
+    <t>James Bay</t>
+  </si>
+  <si>
+    <t>Mariah Carey</t>
+  </si>
+  <si>
+    <t>T-Pain</t>
+  </si>
+  <si>
+    <t>50 Cent</t>
+  </si>
+  <si>
+    <t>Stevie Wonder</t>
+  </si>
+  <si>
+    <t>Ice Cube</t>
+  </si>
+  <si>
+    <t>All 4 One</t>
+  </si>
+  <si>
+    <t>Willa Ford</t>
+  </si>
+  <si>
+    <t>Whitney Houston</t>
+  </si>
+  <si>
+    <t>Meghan Trainor (John Legend)</t>
+  </si>
+  <si>
+    <t>Lil Wayne</t>
+  </si>
+  <si>
+    <t>Chris Brown (Lil Wayne, Busta Rhymes)</t>
+  </si>
+  <si>
+    <t>Jason Mraz (Colbie Caillat)</t>
+  </si>
+  <si>
+    <t>Ludacris</t>
+  </si>
+  <si>
+    <t>Nelly (Kelly Rowland)</t>
+  </si>
+  <si>
+    <t>Rick Astley</t>
+  </si>
+  <si>
+    <t>Meghan Trainor</t>
+  </si>
+  <si>
+    <t>Dr. Dre (Snoop Dogg)</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>Richard Marx</t>
+  </si>
+  <si>
+    <t>Akon</t>
+  </si>
+  <si>
+    <t>Outkast</t>
+  </si>
+  <si>
+    <t>DMX</t>
+  </si>
+  <si>
+    <t>Ying Yang Twins</t>
+  </si>
+  <si>
+    <t>Ariana Grande (Nicki Minaj)</t>
+  </si>
+  <si>
+    <t>Eminem</t>
+  </si>
+  <si>
+    <t>The Pussycat Dolls (Avant)</t>
+  </si>
+  <si>
+    <t>Big Tymers</t>
+  </si>
+  <si>
+    <t>Wheatus</t>
+  </si>
+  <si>
+    <t>Bloodhound Gang</t>
+  </si>
+  <si>
+    <t>Chaka Khan</t>
+  </si>
+  <si>
+    <t>Spice Girls</t>
+  </si>
+  <si>
+    <t>Toni Braxton</t>
+  </si>
+  <si>
+    <t>Red Hot Chili Peppers</t>
+  </si>
+  <si>
+    <t>Madonna</t>
+  </si>
+  <si>
+    <t>Salt n Pepa</t>
+  </si>
+  <si>
+    <t>Black Mirror</t>
+  </si>
+  <si>
+    <t>Boardwalk Empire</t>
+  </si>
+  <si>
+    <t>Brooklyn Nine Nine</t>
+  </si>
+  <si>
+    <t>Daredevil</t>
+  </si>
+  <si>
+    <t>Greys Anatomy</t>
+  </si>
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>House of Cards</t>
+  </si>
+  <si>
+    <t>How to Get Away with Murder</t>
+  </si>
+  <si>
+    <t>Jessica Jones</t>
+  </si>
+  <si>
+    <t>DCs Legends of Tomorrow</t>
+  </si>
+  <si>
+    <t>Modern Family</t>
+  </si>
+  <si>
+    <t>Mr Robot</t>
+  </si>
+  <si>
+    <t>Narcos</t>
+  </si>
+  <si>
+    <t>NCIS</t>
+  </si>
+  <si>
+    <t>New Girl</t>
+  </si>
+  <si>
+    <t>Revenge</t>
+  </si>
+  <si>
+    <t>South Park</t>
+  </si>
+  <si>
+    <t>Suits</t>
+  </si>
+  <si>
+    <t>Supernatural</t>
+  </si>
+  <si>
+    <t>The Big Bang Theory</t>
+  </si>
+  <si>
+    <t>The Blacklist</t>
+  </si>
+  <si>
+    <t>The Vampire Diaries</t>
+  </si>
+  <si>
+    <t>2 Broke Girls</t>
+  </si>
+  <si>
+    <t>Vikings</t>
+  </si>
+  <si>
+    <t>Westworld</t>
+  </si>
+  <si>
+    <t>addams_family</t>
+  </si>
+  <si>
+    <t>all_that</t>
+  </si>
+  <si>
+    <t>american_horror_story</t>
+  </si>
+  <si>
+    <t>andy_griffith</t>
+  </si>
+  <si>
+    <t>baywatch</t>
+  </si>
+  <si>
+    <t>boy_meets_world_1</t>
+  </si>
+  <si>
+    <t>boy_meets_world_6</t>
+  </si>
+  <si>
+    <t>breaking_bad</t>
+  </si>
+  <si>
+    <t>california_dreams</t>
+  </si>
+  <si>
+    <t>clarissa_explains_it_all</t>
+  </si>
+  <si>
+    <t>dawsons_creek</t>
+  </si>
+  <si>
+    <t>dukes_of_hazzard</t>
+  </si>
+  <si>
+    <t>family_matters</t>
+  </si>
+  <si>
+    <t>frasier</t>
+  </si>
+  <si>
+    <t>fresh_prince_of_bel_air</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>full_house</t>
+  </si>
+  <si>
+    <t>game_of_thrones</t>
+  </si>
+  <si>
+    <t>gilligans_island</t>
+  </si>
+  <si>
+    <t>home_improvement</t>
+  </si>
+  <si>
+    <t>how_i_met_your_mother</t>
+  </si>
+  <si>
+    <t>kenan_and_kel</t>
+  </si>
+  <si>
+    <t>phineas_and_ferb</t>
+  </si>
+  <si>
+    <t>pink_panther</t>
+  </si>
+  <si>
+    <t>saved_by_the_bell</t>
+  </si>
+  <si>
+    <t>scrubs</t>
+  </si>
+  <si>
+    <t>seinfeld</t>
+  </si>
+  <si>
+    <t>sex_and_the_city</t>
+  </si>
+  <si>
+    <t>step_by_step_show</t>
+  </si>
+  <si>
+    <t>the_a_team_show</t>
+  </si>
+  <si>
+    <t>the_walking_dead</t>
+  </si>
+  <si>
+    <t>the_wonder_years</t>
+  </si>
+  <si>
+    <t>the_x_files</t>
+  </si>
+  <si>
+    <t>against_all_odds</t>
+  </si>
+  <si>
+    <t>all_or_nothing</t>
+  </si>
+  <si>
+    <t>back_that_ass_up</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>bartender</t>
+  </si>
+  <si>
+    <t>beat_it</t>
+  </si>
+  <si>
+    <t>big_poppa</t>
+  </si>
+  <si>
+    <t>big_yellow_taxi</t>
+  </si>
+  <si>
+    <t>bills_bills_bills</t>
+  </si>
+  <si>
+    <t>bohemian_rhapsody</t>
+  </si>
+  <si>
+    <t>bubbly</t>
+  </si>
+  <si>
+    <t>bump_bump_bump</t>
+  </si>
+  <si>
+    <t>burn_it_up</t>
+  </si>
+  <si>
+    <t>buttons</t>
+  </si>
+  <si>
+    <t>bye_bye_bye</t>
+  </si>
+  <si>
+    <t>cant_help_falling_in_love</t>
+  </si>
+  <si>
+    <t>careless_whisper</t>
+  </si>
+  <si>
+    <t>changes</t>
+  </si>
+  <si>
+    <t>country_grammar</t>
+  </si>
+  <si>
+    <t>damaged</t>
+  </si>
+  <si>
+    <t>dat_stick</t>
+  </si>
+  <si>
+    <t>dont_stop_me_now</t>
+  </si>
+  <si>
+    <t>endless_love</t>
+  </si>
+  <si>
+    <t>genie_in_a_bottle</t>
+  </si>
+  <si>
+    <t>get_like_me</t>
+  </si>
+  <si>
+    <t>get_low</t>
+  </si>
+  <si>
+    <t>gin_and_juice</t>
+  </si>
+  <si>
+    <t>girls_just_want_to_have_fun</t>
+  </si>
+  <si>
+    <t>girl_all_the_bad_guys_want</t>
+  </si>
+  <si>
+    <t>give_me_just_one_night</t>
+  </si>
+  <si>
+    <t>heartbreak_hotel</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>hold_back_the_river</t>
+  </si>
+  <si>
+    <t>honey</t>
+  </si>
+  <si>
+    <t>im_sprung</t>
+  </si>
+  <si>
+    <t>in_da_club</t>
+  </si>
+  <si>
+    <t>isnt_she_lovely</t>
+  </si>
+  <si>
+    <t>it_was_a_good_day</t>
+  </si>
+  <si>
+    <t>i_can_love_you_like_that</t>
+  </si>
+  <si>
+    <t>i_drive_myself_crazy</t>
+  </si>
+  <si>
+    <t>i_just_called_to_stay_i_love_you</t>
+  </si>
+  <si>
+    <t>i_swear</t>
+  </si>
+  <si>
+    <t>i_wanna_be_bad</t>
+  </si>
+  <si>
+    <t>i_will_always_love_you</t>
+  </si>
+  <si>
+    <t>just_a_little_bit</t>
+  </si>
+  <si>
+    <t>king_of_anything</t>
+  </si>
+  <si>
+    <t>let_it_go</t>
+  </si>
+  <si>
+    <t>like_im_gonna_lose_you</t>
+  </si>
+  <si>
+    <t>lollipop</t>
+  </si>
+  <si>
+    <t>look_at_me_now</t>
+  </si>
+  <si>
+    <t>lucky</t>
+  </si>
+  <si>
+    <t>man_in_the_mirror</t>
+  </si>
+  <si>
+    <t>move_bitch</t>
+  </si>
+  <si>
+    <t>my_chick_bad</t>
+  </si>
+  <si>
+    <t>nelly</t>
+  </si>
+  <si>
+    <t>never_gonna_give_you_up</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>nothing_but_a_g_thang</t>
+  </si>
+  <si>
+    <t>oops_i_did_it_again</t>
+  </si>
+  <si>
+    <t>realize</t>
+  </si>
+  <si>
+    <t>right_here_waiting</t>
+  </si>
+  <si>
+    <t>right_now</t>
+  </si>
+  <si>
+    <t>rosa_parks</t>
+  </si>
+  <si>
+    <t>ruff_ryder_anthem</t>
+  </si>
+  <si>
+    <t>salt_shaker</t>
+  </si>
+  <si>
+    <t>say_my_name</t>
+  </si>
+  <si>
+    <t>show_stopper</t>
+  </si>
+  <si>
+    <t>side_to_side</t>
+  </si>
+  <si>
+    <t>somebody_to_love</t>
+  </si>
+  <si>
+    <t>sorry_blame_it_on_me</t>
+  </si>
+  <si>
+    <t>stan</t>
+  </si>
+  <si>
+    <t>stickwitu</t>
+  </si>
+  <si>
+    <t>still_fly</t>
+  </si>
+  <si>
+    <t>teenage_dirtbag</t>
+  </si>
+  <si>
+    <t>the_bad_touch</t>
+  </si>
+  <si>
+    <t>the_fix</t>
+  </si>
+  <si>
+    <t>thriller</t>
+  </si>
+  <si>
+    <t>through_the_fire</t>
+  </si>
+  <si>
+    <t>time_after_time</t>
+  </si>
+  <si>
+    <t>toxic</t>
+  </si>
+  <si>
+    <t>try</t>
+  </si>
+  <si>
+    <t>two_become_one</t>
+  </si>
+  <si>
+    <t>unbreak_my_heart</t>
+  </si>
+  <si>
+    <t>under_the_bridge</t>
+  </si>
+  <si>
+    <t>vogue</t>
+  </si>
+  <si>
+    <t>wannabe</t>
+  </si>
+  <si>
+    <t>we_belong_together</t>
+  </si>
+  <si>
+    <t>we_fit_together</t>
+  </si>
+  <si>
+    <t>whats_your_fantasy</t>
+  </si>
+  <si>
+    <t>whatta_man</t>
+  </si>
+  <si>
+    <t>black_mirror</t>
+  </si>
+  <si>
+    <t>boardwalk_empire</t>
+  </si>
+  <si>
+    <t>brooklyn_nine_nine</t>
+  </si>
+  <si>
+    <t>daredevil</t>
+  </si>
+  <si>
+    <t>greys_anatomy</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>house_of_cards</t>
+  </si>
+  <si>
+    <t>how_to_get_away_with_murder</t>
+  </si>
+  <si>
+    <t>jessica_jones</t>
+  </si>
+  <si>
+    <t>legends_of_tomorrow</t>
+  </si>
+  <si>
+    <t>modern_family</t>
+  </si>
+  <si>
+    <t>mr_robot</t>
+  </si>
+  <si>
+    <t>narcos</t>
+  </si>
+  <si>
+    <t>ncis</t>
+  </si>
+  <si>
+    <t>new_girl</t>
+  </si>
+  <si>
+    <t>revenge</t>
+  </si>
+  <si>
+    <t>south_park</t>
+  </si>
+  <si>
+    <t>suits</t>
+  </si>
+  <si>
+    <t>supernatural</t>
+  </si>
+  <si>
+    <t>the_big_bang_theory</t>
+  </si>
+  <si>
+    <t>the_blacklist</t>
+  </si>
+  <si>
+    <t>the_vampire_diaries</t>
+  </si>
+  <si>
+    <t>two_broke_girls</t>
+  </si>
+  <si>
+    <t>vikings</t>
+  </si>
+  <si>
+    <t>westworld</t>
   </si>
 </sst>
 </file>
@@ -2543,10 +3422,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O279"/>
+  <dimension ref="A1:O394"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A354" workbookViewId="0">
+      <selection activeCell="B394" sqref="B394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3158,10 +4037,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>713</v>
+        <v>680</v>
       </c>
       <c r="C25" t="s">
-        <v>714</v>
+        <v>681</v>
       </c>
       <c r="D25" t="s">
         <v>132</v>
@@ -4316,7 +5195,7 @@
         <v>179</v>
       </c>
       <c r="C73" t="s">
-        <v>715</v>
+        <v>682</v>
       </c>
       <c r="D73" t="s">
         <v>237</v>
@@ -4532,7 +5411,7 @@
         <v>188</v>
       </c>
       <c r="C82" t="s">
-        <v>716</v>
+        <v>683</v>
       </c>
       <c r="D82" t="s">
         <v>245</v>
@@ -4628,7 +5507,7 @@
         <v>192</v>
       </c>
       <c r="C86" t="s">
-        <v>717</v>
+        <v>684</v>
       </c>
       <c r="D86" t="s">
         <v>249</v>
@@ -5216,7 +6095,7 @@
         <v>23</v>
       </c>
       <c r="G110" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -5240,7 +6119,7 @@
         <v>23</v>
       </c>
       <c r="G111" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -5264,7 +6143,7 @@
         <v>23</v>
       </c>
       <c r="G112" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
@@ -5288,7 +6167,7 @@
         <v>23</v>
       </c>
       <c r="G113" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -5312,7 +6191,7 @@
         <v>23</v>
       </c>
       <c r="G114" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
@@ -5336,7 +6215,7 @@
         <v>23</v>
       </c>
       <c r="G115" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
@@ -5360,7 +6239,7 @@
         <v>23</v>
       </c>
       <c r="G116" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
@@ -5372,7 +6251,7 @@
         <v>370</v>
       </c>
       <c r="C117" t="s">
-        <v>718</v>
+        <v>685</v>
       </c>
       <c r="D117" t="s">
         <v>333</v>
@@ -5384,7 +6263,7 @@
         <v>23</v>
       </c>
       <c r="G117" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
@@ -5408,7 +6287,7 @@
         <v>23</v>
       </c>
       <c r="G118" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
@@ -5420,7 +6299,7 @@
         <v>372</v>
       </c>
       <c r="C119" t="s">
-        <v>719</v>
+        <v>686</v>
       </c>
       <c r="D119" t="s">
         <v>335</v>
@@ -5432,7 +6311,7 @@
         <v>23</v>
       </c>
       <c r="G119" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
@@ -5456,7 +6335,7 @@
         <v>23</v>
       </c>
       <c r="G120" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
@@ -5480,7 +6359,7 @@
         <v>23</v>
       </c>
       <c r="G121" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
@@ -5504,7 +6383,7 @@
         <v>23</v>
       </c>
       <c r="G122" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
@@ -5528,7 +6407,7 @@
         <v>23</v>
       </c>
       <c r="G123" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
@@ -5552,7 +6431,7 @@
         <v>23</v>
       </c>
       <c r="G124" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
@@ -5576,7 +6455,7 @@
         <v>23</v>
       </c>
       <c r="G125" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
@@ -5600,7 +6479,7 @@
         <v>23</v>
       </c>
       <c r="G126" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
@@ -5624,7 +6503,7 @@
         <v>23</v>
       </c>
       <c r="G127" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
@@ -5648,7 +6527,7 @@
         <v>23</v>
       </c>
       <c r="G128" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
@@ -5672,7 +6551,7 @@
         <v>23</v>
       </c>
       <c r="G129" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
@@ -5696,7 +6575,7 @@
         <v>23</v>
       </c>
       <c r="G130" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
@@ -5720,7 +6599,7 @@
         <v>23</v>
       </c>
       <c r="G131" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
@@ -5744,7 +6623,7 @@
         <v>23</v>
       </c>
       <c r="G132" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
@@ -5768,7 +6647,7 @@
         <v>23</v>
       </c>
       <c r="G133" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
@@ -5792,7 +6671,7 @@
         <v>23</v>
       </c>
       <c r="G134" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
@@ -5816,7 +6695,7 @@
         <v>23</v>
       </c>
       <c r="G135" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
@@ -5828,7 +6707,7 @@
         <v>389</v>
       </c>
       <c r="C136" t="s">
-        <v>720</v>
+        <v>687</v>
       </c>
       <c r="D136" t="s">
         <v>352</v>
@@ -5840,7 +6719,7 @@
         <v>23</v>
       </c>
       <c r="G136" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
@@ -5864,7 +6743,7 @@
         <v>23</v>
       </c>
       <c r="G137" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
@@ -5888,7 +6767,7 @@
         <v>23</v>
       </c>
       <c r="G138" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
@@ -5912,7 +6791,7 @@
         <v>23</v>
       </c>
       <c r="G139" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
@@ -5936,7 +6815,7 @@
         <v>23</v>
       </c>
       <c r="G140" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
@@ -5960,7 +6839,7 @@
         <v>23</v>
       </c>
       <c r="G141" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
@@ -5984,7 +6863,7 @@
         <v>23</v>
       </c>
       <c r="G142" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
@@ -6008,7 +6887,7 @@
         <v>23</v>
       </c>
       <c r="G143" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
@@ -6032,7 +6911,7 @@
         <v>23</v>
       </c>
       <c r="G144" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
@@ -6056,7 +6935,7 @@
         <v>23</v>
       </c>
       <c r="G145" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
@@ -6080,7 +6959,7 @@
         <v>23</v>
       </c>
       <c r="G146" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
@@ -6089,13 +6968,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
+        <v>866</v>
+      </c>
+      <c r="C147" t="s">
         <v>401</v>
       </c>
-      <c r="C147" t="s">
-        <v>402</v>
-      </c>
       <c r="D147" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E147">
         <v>1990</v>
@@ -6104,7 +6983,7 @@
         <v>23</v>
       </c>
       <c r="G147" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
@@ -6113,13 +6992,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>403</v>
+        <v>867</v>
       </c>
       <c r="C148" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D148" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E148">
         <v>2000</v>
@@ -6128,7 +7007,7 @@
         <v>23</v>
       </c>
       <c r="G148" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
@@ -6137,13 +7016,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>405</v>
+        <v>868</v>
       </c>
       <c r="C149" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D149" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E149">
         <v>2000</v>
@@ -6152,7 +7031,7 @@
         <v>23</v>
       </c>
       <c r="G149" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
@@ -6161,13 +7040,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>407</v>
+        <v>869</v>
       </c>
       <c r="C150" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D150" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E150">
         <v>1990</v>
@@ -6176,7 +7055,7 @@
         <v>23</v>
       </c>
       <c r="G150" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
@@ -6185,13 +7064,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>409</v>
+        <v>870</v>
       </c>
       <c r="C151" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D151" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E151">
         <v>1990</v>
@@ -6200,7 +7079,7 @@
         <v>23</v>
       </c>
       <c r="G151" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
@@ -6209,13 +7088,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>411</v>
+        <v>871</v>
       </c>
       <c r="C152" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D152" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="E152">
         <v>1990</v>
@@ -6224,7 +7103,7 @@
         <v>23</v>
       </c>
       <c r="G152" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -6233,13 +7112,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>413</v>
+        <v>872</v>
       </c>
       <c r="C153" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D153" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="E153">
         <v>2000</v>
@@ -6248,7 +7127,7 @@
         <v>23</v>
       </c>
       <c r="G153" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
@@ -6257,13 +7136,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>415</v>
+        <v>873</v>
       </c>
       <c r="C154" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="D154" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E154">
         <v>2010</v>
@@ -6272,7 +7151,7 @@
         <v>23</v>
       </c>
       <c r="G154" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
@@ -6281,13 +7160,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>417</v>
+        <v>874</v>
       </c>
       <c r="C155" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="D155" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="E155">
         <v>1990</v>
@@ -6296,7 +7175,7 @@
         <v>23</v>
       </c>
       <c r="G155" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
@@ -6305,13 +7184,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>419</v>
+        <v>875</v>
       </c>
       <c r="C156" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="D156" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="E156">
         <v>1990</v>
@@ -6320,7 +7199,7 @@
         <v>23</v>
       </c>
       <c r="G156" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
@@ -6329,13 +7208,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>421</v>
+        <v>876</v>
       </c>
       <c r="C157" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="D157" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="E157">
         <v>1990</v>
@@ -6344,7 +7223,7 @@
         <v>23</v>
       </c>
       <c r="G157" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
@@ -6353,13 +7232,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>423</v>
+        <v>877</v>
       </c>
       <c r="C158" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D158" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="E158">
         <v>2000</v>
@@ -6368,7 +7247,7 @@
         <v>23</v>
       </c>
       <c r="G158" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
@@ -6377,13 +7256,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>425</v>
+        <v>878</v>
       </c>
       <c r="C159" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="D159" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="E159">
         <v>1990</v>
@@ -6392,7 +7271,7 @@
         <v>23</v>
       </c>
       <c r="G159" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
@@ -6401,13 +7280,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>427</v>
+        <v>879</v>
       </c>
       <c r="C160" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="D160" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="E160">
         <v>1990</v>
@@ -6416,7 +7295,7 @@
         <v>23</v>
       </c>
       <c r="G160" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
@@ -6425,13 +7304,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>429</v>
+        <v>880</v>
       </c>
       <c r="C161" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="D161" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="E161">
         <v>1990</v>
@@ -6440,7 +7319,7 @@
         <v>23</v>
       </c>
       <c r="G161" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
@@ -6449,13 +7328,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>431</v>
+        <v>881</v>
       </c>
       <c r="C162" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="D162" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="E162">
         <v>1990</v>
@@ -6464,7 +7343,7 @@
         <v>23</v>
       </c>
       <c r="G162" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
@@ -6473,22 +7352,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
+        <v>882</v>
+      </c>
+      <c r="C163" t="s">
+        <v>417</v>
+      </c>
+      <c r="D163" t="s">
+        <v>417</v>
+      </c>
+      <c r="E163">
+        <v>1990</v>
+      </c>
+      <c r="F163" t="s">
+        <v>23</v>
+      </c>
+      <c r="G163" t="s">
         <v>433</v>
-      </c>
-      <c r="C163" t="s">
-        <v>434</v>
-      </c>
-      <c r="D163" t="s">
-        <v>434</v>
-      </c>
-      <c r="E163">
-        <v>1990</v>
-      </c>
-      <c r="F163" t="s">
-        <v>23</v>
-      </c>
-      <c r="G163" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -6497,13 +7376,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>435</v>
+        <v>883</v>
       </c>
       <c r="C164" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="D164" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="E164">
         <v>2010</v>
@@ -6512,7 +7391,7 @@
         <v>23</v>
       </c>
       <c r="G164" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
@@ -6521,13 +7400,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>437</v>
+        <v>884</v>
       </c>
       <c r="C165" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="D165" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="E165">
         <v>1990</v>
@@ -6536,7 +7415,7 @@
         <v>23</v>
       </c>
       <c r="G165" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
@@ -6545,13 +7424,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>439</v>
+        <v>885</v>
       </c>
       <c r="C166" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="D166" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="E166">
         <v>1990</v>
@@ -6560,7 +7439,7 @@
         <v>23</v>
       </c>
       <c r="G166" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
@@ -6569,13 +7448,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>441</v>
+        <v>886</v>
       </c>
       <c r="C167" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="D167" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="E167">
         <v>2010</v>
@@ -6584,7 +7463,7 @@
         <v>23</v>
       </c>
       <c r="G167" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
@@ -6593,13 +7472,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>443</v>
+        <v>887</v>
       </c>
       <c r="C168" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="D168" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="E168">
         <v>1990</v>
@@ -6608,7 +7487,7 @@
         <v>23</v>
       </c>
       <c r="G168" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
@@ -6617,13 +7496,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>445</v>
+        <v>888</v>
       </c>
       <c r="C169" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="D169" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="E169">
         <v>2010</v>
@@ -6632,7 +7511,7 @@
         <v>23</v>
       </c>
       <c r="G169" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
@@ -6641,13 +7520,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>447</v>
+        <v>889</v>
       </c>
       <c r="C170" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="D170" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="E170">
         <v>1990</v>
@@ -6656,7 +7535,7 @@
         <v>23</v>
       </c>
       <c r="G170" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
@@ -6665,13 +7544,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>449</v>
+        <v>890</v>
       </c>
       <c r="C171" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="D171" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="E171">
         <v>1990</v>
@@ -6680,7 +7559,7 @@
         <v>23</v>
       </c>
       <c r="G171" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
@@ -6689,13 +7568,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>451</v>
+        <v>891</v>
       </c>
       <c r="C172" t="s">
-        <v>452</v>
+        <v>426</v>
       </c>
       <c r="D172" t="s">
-        <v>452</v>
+        <v>426</v>
       </c>
       <c r="E172">
         <v>2000</v>
@@ -6704,7 +7583,7 @@
         <v>23</v>
       </c>
       <c r="G172" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
@@ -6713,13 +7592,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>453</v>
+        <v>892</v>
       </c>
       <c r="C173" t="s">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="D173" t="s">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="E173">
         <v>2000</v>
@@ -6728,7 +7607,7 @@
         <v>23</v>
       </c>
       <c r="G173" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
@@ -6737,13 +7616,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>455</v>
+        <v>893</v>
       </c>
       <c r="C174" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="D174" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="E174">
         <v>2000</v>
@@ -6752,7 +7631,7 @@
         <v>23</v>
       </c>
       <c r="G174" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
@@ -6761,13 +7640,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>457</v>
+        <v>894</v>
       </c>
       <c r="C175" t="s">
-        <v>458</v>
+        <v>429</v>
       </c>
       <c r="D175" t="s">
-        <v>458</v>
+        <v>429</v>
       </c>
       <c r="E175">
         <v>1990</v>
@@ -6776,7 +7655,7 @@
         <v>23</v>
       </c>
       <c r="G175" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
@@ -6785,13 +7664,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>470</v>
+        <v>895</v>
       </c>
       <c r="C176" t="s">
-        <v>471</v>
+        <v>438</v>
       </c>
       <c r="D176" t="s">
-        <v>471</v>
+        <v>438</v>
       </c>
       <c r="E176">
         <v>1990</v>
@@ -6800,7 +7679,7 @@
         <v>23</v>
       </c>
       <c r="G176" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
@@ -6809,13 +7688,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>459</v>
+        <v>896</v>
       </c>
       <c r="C177" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="D177" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="E177">
         <v>2010</v>
@@ -6824,7 +7703,7 @@
         <v>23</v>
       </c>
       <c r="G177" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
@@ -6833,13 +7712,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>461</v>
+        <v>897</v>
       </c>
       <c r="C178" t="s">
-        <v>462</v>
+        <v>431</v>
       </c>
       <c r="D178" t="s">
-        <v>462</v>
+        <v>431</v>
       </c>
       <c r="E178">
         <v>1990</v>
@@ -6848,7 +7727,7 @@
         <v>23</v>
       </c>
       <c r="G178" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
@@ -6857,13 +7736,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>463</v>
+        <v>898</v>
       </c>
       <c r="C179" t="s">
-        <v>464</v>
+        <v>432</v>
       </c>
       <c r="D179" t="s">
-        <v>464</v>
+        <v>432</v>
       </c>
       <c r="E179">
         <v>1990</v>
@@ -6872,7 +7751,7 @@
         <v>23</v>
       </c>
       <c r="G179" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
@@ -6881,13 +7760,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>466</v>
+        <v>434</v>
       </c>
       <c r="C180" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="D180" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="E180">
         <v>2000</v>
@@ -6896,7 +7775,7 @@
         <v>23</v>
       </c>
       <c r="G180" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
@@ -6905,13 +7784,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="C181" t="s">
-        <v>469</v>
+        <v>437</v>
       </c>
       <c r="D181" t="s">
-        <v>469</v>
+        <v>437</v>
       </c>
       <c r="E181">
         <v>1990</v>
@@ -6920,7 +7799,7 @@
         <v>23</v>
       </c>
       <c r="G181" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
@@ -6929,13 +7808,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="C182" t="s">
-        <v>550</v>
+        <v>517</v>
       </c>
       <c r="D182" t="s">
-        <v>625</v>
+        <v>592</v>
       </c>
       <c r="E182">
         <v>2000</v>
@@ -6947,7 +7826,7 @@
         <v>25</v>
       </c>
       <c r="H182" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
@@ -6956,13 +7835,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>476</v>
+        <v>443</v>
       </c>
       <c r="C183" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
       <c r="D183" t="s">
-        <v>626</v>
+        <v>593</v>
       </c>
       <c r="E183">
         <v>1960</v>
@@ -6974,7 +7853,7 @@
         <v>25</v>
       </c>
       <c r="H183" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
@@ -6983,13 +7862,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="C184" t="s">
-        <v>552</v>
+        <v>519</v>
       </c>
       <c r="D184" t="s">
-        <v>627</v>
+        <v>594</v>
       </c>
       <c r="E184">
         <v>1990</v>
@@ -7001,7 +7880,7 @@
         <v>25</v>
       </c>
       <c r="H184" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
@@ -7010,13 +7889,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>474</v>
+        <v>441</v>
       </c>
       <c r="C185" t="s">
-        <v>553</v>
+        <v>520</v>
       </c>
       <c r="D185" t="s">
-        <v>628</v>
+        <v>595</v>
       </c>
       <c r="E185">
         <v>2010</v>
@@ -7028,7 +7907,7 @@
         <v>25</v>
       </c>
       <c r="H185" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
@@ -7037,13 +7916,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>481</v>
+        <v>448</v>
       </c>
       <c r="C186" t="s">
-        <v>554</v>
+        <v>521</v>
       </c>
       <c r="D186" t="s">
-        <v>629</v>
+        <v>596</v>
       </c>
       <c r="E186">
         <v>1990</v>
@@ -7055,7 +7934,7 @@
         <v>25</v>
       </c>
       <c r="H186" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
@@ -7064,13 +7943,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>482</v>
+        <v>449</v>
       </c>
       <c r="C187" t="s">
-        <v>555</v>
+        <v>522</v>
       </c>
       <c r="D187" t="s">
-        <v>630</v>
+        <v>597</v>
       </c>
       <c r="E187">
         <v>1990</v>
@@ -7082,7 +7961,7 @@
         <v>25</v>
       </c>
       <c r="H187" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
@@ -7091,13 +7970,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>478</v>
+        <v>445</v>
       </c>
       <c r="C188" t="s">
-        <v>556</v>
+        <v>523</v>
       </c>
       <c r="D188" t="s">
-        <v>631</v>
+        <v>598</v>
       </c>
       <c r="E188">
         <v>1970</v>
@@ -7109,7 +7988,7 @@
         <v>25</v>
       </c>
       <c r="H188" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
@@ -7118,13 +7997,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>479</v>
+        <v>446</v>
       </c>
       <c r="C189" t="s">
-        <v>557</v>
+        <v>524</v>
       </c>
       <c r="D189" t="s">
-        <v>629</v>
+        <v>596</v>
       </c>
       <c r="E189">
         <v>1990</v>
@@ -7136,7 +8015,7 @@
         <v>25</v>
       </c>
       <c r="H189" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
@@ -7145,13 +8024,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>480</v>
+        <v>447</v>
       </c>
       <c r="C190" t="s">
-        <v>558</v>
+        <v>525</v>
       </c>
       <c r="D190" t="s">
-        <v>632</v>
+        <v>599</v>
       </c>
       <c r="E190">
         <v>1950</v>
@@ -7163,7 +8042,7 @@
         <v>25</v>
       </c>
       <c r="H190" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
@@ -7172,13 +8051,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="C191" t="s">
-        <v>559</v>
+        <v>526</v>
       </c>
       <c r="D191" t="s">
-        <v>633</v>
+        <v>600</v>
       </c>
       <c r="E191">
         <v>1950</v>
@@ -7190,7 +8069,7 @@
         <v>25</v>
       </c>
       <c r="H191" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
@@ -7199,13 +8078,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>484</v>
+        <v>451</v>
       </c>
       <c r="C192" t="s">
-        <v>560</v>
+        <v>527</v>
       </c>
       <c r="D192" t="s">
-        <v>626</v>
+        <v>593</v>
       </c>
       <c r="E192">
         <v>1970</v>
@@ -7217,7 +8096,7 @@
         <v>25</v>
       </c>
       <c r="H192" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
@@ -7226,13 +8105,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>485</v>
+        <v>452</v>
       </c>
       <c r="C193" t="s">
-        <v>561</v>
+        <v>528</v>
       </c>
       <c r="D193" t="s">
-        <v>630</v>
+        <v>597</v>
       </c>
       <c r="E193">
         <v>1990</v>
@@ -7244,7 +8123,7 @@
         <v>25</v>
       </c>
       <c r="H193" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
@@ -7253,13 +8132,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>486</v>
+        <v>453</v>
       </c>
       <c r="C194" t="s">
-        <v>562</v>
+        <v>529</v>
       </c>
       <c r="D194" t="s">
-        <v>634</v>
+        <v>601</v>
       </c>
       <c r="E194">
         <v>1990</v>
@@ -7271,7 +8150,7 @@
         <v>25</v>
       </c>
       <c r="H194" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
@@ -7280,13 +8159,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>487</v>
+        <v>454</v>
       </c>
       <c r="C195" t="s">
-        <v>563</v>
+        <v>530</v>
       </c>
       <c r="D195" t="s">
-        <v>635</v>
+        <v>602</v>
       </c>
       <c r="E195">
         <v>1940</v>
@@ -7298,7 +8177,7 @@
         <v>25</v>
       </c>
       <c r="H195" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
@@ -7307,13 +8186,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>488</v>
+        <v>455</v>
       </c>
       <c r="C196" t="s">
-        <v>564</v>
+        <v>531</v>
       </c>
       <c r="D196" t="s">
-        <v>636</v>
+        <v>603</v>
       </c>
       <c r="E196">
         <v>2010</v>
@@ -7325,7 +8204,7 @@
         <v>25</v>
       </c>
       <c r="H196" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
@@ -7334,13 +8213,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>489</v>
+        <v>456</v>
       </c>
       <c r="C197" t="s">
-        <v>565</v>
+        <v>532</v>
       </c>
       <c r="D197" t="s">
-        <v>637</v>
+        <v>604</v>
       </c>
       <c r="E197">
         <v>1950</v>
@@ -7352,7 +8231,7 @@
         <v>25</v>
       </c>
       <c r="H197" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
@@ -7361,13 +8240,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>490</v>
+        <v>457</v>
       </c>
       <c r="C198" t="s">
-        <v>566</v>
+        <v>533</v>
       </c>
       <c r="D198" t="s">
-        <v>638</v>
+        <v>605</v>
       </c>
       <c r="E198">
         <v>1980</v>
@@ -7379,7 +8258,7 @@
         <v>25</v>
       </c>
       <c r="H198" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
@@ -7388,13 +8267,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>491</v>
+        <v>458</v>
       </c>
       <c r="C199" t="s">
-        <v>567</v>
+        <v>534</v>
       </c>
       <c r="D199" t="s">
-        <v>629</v>
+        <v>596</v>
       </c>
       <c r="E199">
         <v>1990</v>
@@ -7406,7 +8285,7 @@
         <v>25</v>
       </c>
       <c r="H199" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
@@ -7415,13 +8294,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>492</v>
+        <v>459</v>
       </c>
       <c r="C200" t="s">
-        <v>568</v>
+        <v>535</v>
       </c>
       <c r="D200" t="s">
-        <v>639</v>
+        <v>606</v>
       </c>
       <c r="E200">
         <v>1990</v>
@@ -7433,7 +8312,7 @@
         <v>25</v>
       </c>
       <c r="H200" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
@@ -7442,13 +8321,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>493</v>
+        <v>460</v>
       </c>
       <c r="C201" t="s">
-        <v>569</v>
+        <v>536</v>
       </c>
       <c r="D201" t="s">
-        <v>640</v>
+        <v>607</v>
       </c>
       <c r="E201">
         <v>2000</v>
@@ -7460,7 +8339,7 @@
         <v>25</v>
       </c>
       <c r="H201" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
@@ -7469,13 +8348,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="C202" t="s">
-        <v>570</v>
+        <v>537</v>
       </c>
       <c r="D202" t="s">
-        <v>640</v>
+        <v>607</v>
       </c>
       <c r="E202">
         <v>2000</v>
@@ -7487,7 +8366,7 @@
         <v>25</v>
       </c>
       <c r="H202" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
@@ -7496,13 +8375,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>494</v>
+        <v>461</v>
       </c>
       <c r="C203" t="s">
-        <v>571</v>
+        <v>538</v>
       </c>
       <c r="D203" t="s">
-        <v>641</v>
+        <v>608</v>
       </c>
       <c r="E203">
         <v>1930</v>
@@ -7514,7 +8393,7 @@
         <v>25</v>
       </c>
       <c r="H203" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
@@ -7523,13 +8402,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>496</v>
+        <v>463</v>
       </c>
       <c r="C204" t="s">
-        <v>572</v>
+        <v>539</v>
       </c>
       <c r="D204" t="s">
-        <v>642</v>
+        <v>609</v>
       </c>
       <c r="E204">
         <v>2010</v>
@@ -7541,7 +8420,7 @@
         <v>25</v>
       </c>
       <c r="H204" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
@@ -7550,13 +8429,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>502</v>
+        <v>469</v>
       </c>
       <c r="C205" t="s">
-        <v>573</v>
+        <v>540</v>
       </c>
       <c r="D205" t="s">
-        <v>630</v>
+        <v>597</v>
       </c>
       <c r="E205">
         <v>1990</v>
@@ -7568,7 +8447,7 @@
         <v>25</v>
       </c>
       <c r="H205" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
@@ -7577,13 +8456,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>503</v>
+        <v>470</v>
       </c>
       <c r="C206" t="s">
-        <v>574</v>
+        <v>541</v>
       </c>
       <c r="D206" t="s">
-        <v>643</v>
+        <v>610</v>
       </c>
       <c r="E206">
         <v>2010</v>
@@ -7595,7 +8474,7 @@
         <v>25</v>
       </c>
       <c r="H206" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
@@ -7604,13 +8483,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="C207" t="s">
-        <v>575</v>
+        <v>542</v>
       </c>
       <c r="D207" t="s">
-        <v>644</v>
+        <v>611</v>
       </c>
       <c r="E207">
         <v>1950</v>
@@ -7622,7 +8501,7 @@
         <v>25</v>
       </c>
       <c r="H207" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
@@ -7631,13 +8510,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>505</v>
+        <v>472</v>
       </c>
       <c r="C208" t="s">
-        <v>576</v>
+        <v>543</v>
       </c>
       <c r="D208" t="s">
-        <v>639</v>
+        <v>606</v>
       </c>
       <c r="E208">
         <v>1990</v>
@@ -7649,7 +8528,7 @@
         <v>25</v>
       </c>
       <c r="H208" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
@@ -7658,13 +8537,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>497</v>
+        <v>464</v>
       </c>
       <c r="C209" t="s">
-        <v>577</v>
+        <v>544</v>
       </c>
       <c r="D209" t="s">
-        <v>645</v>
+        <v>612</v>
       </c>
       <c r="E209">
         <v>1990</v>
@@ -7676,7 +8555,7 @@
         <v>25</v>
       </c>
       <c r="H209" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
@@ -7685,13 +8564,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>499</v>
+        <v>466</v>
       </c>
       <c r="C210" t="s">
-        <v>578</v>
+        <v>545</v>
       </c>
       <c r="D210" t="s">
-        <v>646</v>
+        <v>613</v>
       </c>
       <c r="E210">
         <v>2000</v>
@@ -7703,7 +8582,7 @@
         <v>25</v>
       </c>
       <c r="H210" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
@@ -7712,13 +8591,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>498</v>
+        <v>465</v>
       </c>
       <c r="C211" t="s">
-        <v>579</v>
+        <v>546</v>
       </c>
       <c r="D211" t="s">
-        <v>647</v>
+        <v>614</v>
       </c>
       <c r="E211">
         <v>2010</v>
@@ -7730,7 +8609,7 @@
         <v>25</v>
       </c>
       <c r="H211" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
@@ -7739,13 +8618,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="C212" t="s">
-        <v>580</v>
+        <v>547</v>
       </c>
       <c r="D212" t="s">
-        <v>643</v>
+        <v>610</v>
       </c>
       <c r="E212">
         <v>2010</v>
@@ -7757,7 +8636,7 @@
         <v>25</v>
       </c>
       <c r="H212" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
@@ -7766,13 +8645,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>501</v>
+        <v>468</v>
       </c>
       <c r="C213" t="s">
-        <v>581</v>
+        <v>548</v>
       </c>
       <c r="D213" t="s">
-        <v>648</v>
+        <v>615</v>
       </c>
       <c r="E213">
         <v>1940</v>
@@ -7784,7 +8663,7 @@
         <v>25</v>
       </c>
       <c r="H213" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
@@ -7793,13 +8672,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>506</v>
+        <v>473</v>
       </c>
       <c r="C214" t="s">
-        <v>582</v>
+        <v>549</v>
       </c>
       <c r="D214" t="s">
-        <v>634</v>
+        <v>601</v>
       </c>
       <c r="E214">
         <v>1990</v>
@@ -7811,7 +8690,7 @@
         <v>25</v>
       </c>
       <c r="H214" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
@@ -7820,13 +8699,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>507</v>
+        <v>474</v>
       </c>
       <c r="C215" t="s">
-        <v>583</v>
+        <v>550</v>
       </c>
       <c r="D215" t="s">
-        <v>649</v>
+        <v>616</v>
       </c>
       <c r="E215">
         <v>1990</v>
@@ -7838,7 +8717,7 @@
         <v>25</v>
       </c>
       <c r="H215" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
@@ -7847,13 +8726,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>508</v>
+        <v>475</v>
       </c>
       <c r="C216" t="s">
-        <v>584</v>
+        <v>551</v>
       </c>
       <c r="D216" t="s">
-        <v>650</v>
+        <v>617</v>
       </c>
       <c r="E216">
         <v>1940</v>
@@ -7865,7 +8744,7 @@
         <v>25</v>
       </c>
       <c r="H216" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
@@ -7874,13 +8753,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>509</v>
+        <v>476</v>
       </c>
       <c r="C217" t="s">
-        <v>585</v>
+        <v>552</v>
       </c>
       <c r="D217" t="s">
-        <v>651</v>
+        <v>618</v>
       </c>
       <c r="E217">
         <v>2000</v>
@@ -7892,7 +8771,7 @@
         <v>25</v>
       </c>
       <c r="H217" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
@@ -7901,13 +8780,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>510</v>
+        <v>477</v>
       </c>
       <c r="C218" t="s">
-        <v>586</v>
+        <v>553</v>
       </c>
       <c r="D218" t="s">
-        <v>636</v>
+        <v>603</v>
       </c>
       <c r="E218">
         <v>2010</v>
@@ -7919,7 +8798,7 @@
         <v>25</v>
       </c>
       <c r="H218" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
@@ -7928,13 +8807,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>514</v>
+        <v>481</v>
       </c>
       <c r="C219" t="s">
-        <v>587</v>
+        <v>554</v>
       </c>
       <c r="D219" t="s">
-        <v>651</v>
+        <v>618</v>
       </c>
       <c r="E219">
         <v>2000</v>
@@ -7946,7 +8825,7 @@
         <v>25</v>
       </c>
       <c r="H219" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
@@ -7955,13 +8834,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>515</v>
+        <v>482</v>
       </c>
       <c r="C220" t="s">
-        <v>588</v>
+        <v>555</v>
       </c>
       <c r="D220" t="s">
-        <v>645</v>
+        <v>612</v>
       </c>
       <c r="E220">
         <v>2000</v>
@@ -7973,7 +8852,7 @@
         <v>25</v>
       </c>
       <c r="H220" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
@@ -7982,13 +8861,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>511</v>
+        <v>478</v>
       </c>
       <c r="C221" t="s">
-        <v>589</v>
+        <v>556</v>
       </c>
       <c r="D221" t="s">
-        <v>652</v>
+        <v>619</v>
       </c>
       <c r="E221">
         <v>1940</v>
@@ -8000,7 +8879,7 @@
         <v>25</v>
       </c>
       <c r="H221" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
@@ -8009,13 +8888,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="C222" t="s">
-        <v>590</v>
+        <v>557</v>
       </c>
       <c r="D222" t="s">
-        <v>627</v>
+        <v>594</v>
       </c>
       <c r="E222">
         <v>1990</v>
@@ -8027,7 +8906,7 @@
         <v>25</v>
       </c>
       <c r="H222" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
@@ -8036,13 +8915,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="C223" t="s">
-        <v>591</v>
+        <v>558</v>
       </c>
       <c r="D223" t="s">
-        <v>639</v>
+        <v>606</v>
       </c>
       <c r="E223">
         <v>1990</v>
@@ -8054,7 +8933,7 @@
         <v>25</v>
       </c>
       <c r="H223" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
@@ -8063,13 +8942,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>517</v>
+        <v>484</v>
       </c>
       <c r="C224" t="s">
-        <v>592</v>
+        <v>559</v>
       </c>
       <c r="D224" t="s">
-        <v>653</v>
+        <v>620</v>
       </c>
       <c r="E224">
         <v>1940</v>
@@ -8081,7 +8960,7 @@
         <v>25</v>
       </c>
       <c r="H224" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
@@ -8090,25 +8969,25 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
+        <v>483</v>
+      </c>
+      <c r="C225" t="s">
+        <v>560</v>
+      </c>
+      <c r="D225" t="s">
+        <v>621</v>
+      </c>
+      <c r="E225">
+        <v>1990</v>
+      </c>
+      <c r="F225" t="s">
+        <v>23</v>
+      </c>
+      <c r="G225" t="s">
+        <v>25</v>
+      </c>
+      <c r="H225" t="s">
         <v>516</v>
-      </c>
-      <c r="C225" t="s">
-        <v>593</v>
-      </c>
-      <c r="D225" t="s">
-        <v>654</v>
-      </c>
-      <c r="E225">
-        <v>1990</v>
-      </c>
-      <c r="F225" t="s">
-        <v>23</v>
-      </c>
-      <c r="G225" t="s">
-        <v>25</v>
-      </c>
-      <c r="H225" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
@@ -8117,13 +8996,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>518</v>
+        <v>485</v>
       </c>
       <c r="C226" t="s">
-        <v>594</v>
+        <v>561</v>
       </c>
       <c r="D226" t="s">
-        <v>655</v>
+        <v>622</v>
       </c>
       <c r="E226">
         <v>1990</v>
@@ -8135,7 +9014,7 @@
         <v>25</v>
       </c>
       <c r="H226" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
@@ -8144,13 +9023,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>519</v>
+        <v>486</v>
       </c>
       <c r="C227" t="s">
-        <v>595</v>
+        <v>562</v>
       </c>
       <c r="D227" t="s">
-        <v>656</v>
+        <v>623</v>
       </c>
       <c r="E227">
         <v>1970</v>
@@ -8162,7 +9041,7 @@
         <v>25</v>
       </c>
       <c r="H227" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
@@ -8171,13 +9050,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>520</v>
+        <v>487</v>
       </c>
       <c r="C228" t="s">
-        <v>596</v>
+        <v>563</v>
       </c>
       <c r="D228" t="s">
-        <v>649</v>
+        <v>616</v>
       </c>
       <c r="E228">
         <v>1990</v>
@@ -8189,7 +9068,7 @@
         <v>25</v>
       </c>
       <c r="H228" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
@@ -8198,13 +9077,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>521</v>
+        <v>488</v>
       </c>
       <c r="C229" t="s">
-        <v>597</v>
+        <v>564</v>
       </c>
       <c r="D229" t="s">
-        <v>653</v>
+        <v>620</v>
       </c>
       <c r="E229">
         <v>1940</v>
@@ -8216,7 +9095,7 @@
         <v>25</v>
       </c>
       <c r="H229" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
@@ -8225,13 +9104,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="C230" t="s">
-        <v>598</v>
+        <v>565</v>
       </c>
       <c r="D230" t="s">
-        <v>649</v>
+        <v>616</v>
       </c>
       <c r="E230">
         <v>1990</v>
@@ -8243,7 +9122,7 @@
         <v>25</v>
       </c>
       <c r="H230" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
@@ -8252,13 +9131,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>523</v>
+        <v>490</v>
       </c>
       <c r="C231" t="s">
-        <v>599</v>
+        <v>566</v>
       </c>
       <c r="D231" t="s">
-        <v>625</v>
+        <v>592</v>
       </c>
       <c r="E231">
         <v>2000</v>
@@ -8270,7 +9149,7 @@
         <v>25</v>
       </c>
       <c r="H231" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
@@ -8279,14 +9158,14 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>524</v>
+        <v>491</v>
       </c>
       <c r="C232" t="s">
+        <v>567</v>
+      </c>
+      <c r="D232" t="s">
         <v>600</v>
       </c>
-      <c r="D232" t="s">
-        <v>633</v>
-      </c>
       <c r="E232">
         <v>1990</v>
       </c>
@@ -8297,7 +9176,7 @@
         <v>25</v>
       </c>
       <c r="H232" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
@@ -8306,14 +9185,14 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>525</v>
+        <v>492</v>
       </c>
       <c r="C233" t="s">
+        <v>568</v>
+      </c>
+      <c r="D233" t="s">
         <v>601</v>
       </c>
-      <c r="D233" t="s">
-        <v>634</v>
-      </c>
       <c r="E233">
         <v>1990</v>
       </c>
@@ -8324,7 +9203,7 @@
         <v>25</v>
       </c>
       <c r="H233" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
@@ -8333,13 +9212,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>527</v>
+        <v>494</v>
       </c>
       <c r="C234" t="s">
-        <v>602</v>
+        <v>569</v>
       </c>
       <c r="D234" t="s">
-        <v>657</v>
+        <v>624</v>
       </c>
       <c r="E234">
         <v>1990</v>
@@ -8351,7 +9230,7 @@
         <v>25</v>
       </c>
       <c r="H234" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
@@ -8360,13 +9239,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>526</v>
+        <v>493</v>
       </c>
       <c r="C235" t="s">
-        <v>603</v>
+        <v>570</v>
       </c>
       <c r="D235" t="s">
-        <v>658</v>
+        <v>625</v>
       </c>
       <c r="E235">
         <v>1990</v>
@@ -8378,7 +9257,7 @@
         <v>25</v>
       </c>
       <c r="H235" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
@@ -8387,13 +9266,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>528</v>
+        <v>495</v>
       </c>
       <c r="C236" t="s">
-        <v>604</v>
+        <v>571</v>
       </c>
       <c r="D236" t="s">
-        <v>659</v>
+        <v>626</v>
       </c>
       <c r="E236">
         <v>2000</v>
@@ -8405,7 +9284,7 @@
         <v>25</v>
       </c>
       <c r="H236" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
@@ -8414,13 +9293,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>529</v>
+        <v>496</v>
       </c>
       <c r="C237" t="s">
-        <v>605</v>
+        <v>572</v>
       </c>
       <c r="D237" t="s">
-        <v>660</v>
+        <v>627</v>
       </c>
       <c r="E237">
         <v>1990</v>
@@ -8432,7 +9311,7 @@
         <v>25</v>
       </c>
       <c r="H237" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
@@ -8441,13 +9320,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>530</v>
+        <v>497</v>
       </c>
       <c r="C238" t="s">
-        <v>606</v>
+        <v>573</v>
       </c>
       <c r="D238" t="s">
-        <v>644</v>
+        <v>611</v>
       </c>
       <c r="E238">
         <v>1990</v>
@@ -8459,7 +9338,7 @@
         <v>25</v>
       </c>
       <c r="H238" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
@@ -8468,13 +9347,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>531</v>
+        <v>498</v>
       </c>
       <c r="C239" t="s">
-        <v>607</v>
+        <v>574</v>
       </c>
       <c r="D239" t="s">
-        <v>655</v>
+        <v>622</v>
       </c>
       <c r="E239">
         <v>1990</v>
@@ -8486,7 +9365,7 @@
         <v>25</v>
       </c>
       <c r="H239" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
@@ -8495,13 +9374,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>532</v>
+        <v>499</v>
       </c>
       <c r="C240" t="s">
-        <v>608</v>
+        <v>575</v>
       </c>
       <c r="D240" t="s">
-        <v>661</v>
+        <v>628</v>
       </c>
       <c r="E240">
         <v>1990</v>
@@ -8513,7 +9392,7 @@
         <v>25</v>
       </c>
       <c r="H240" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
@@ -8522,13 +9401,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>533</v>
+        <v>500</v>
       </c>
       <c r="C241" t="s">
-        <v>609</v>
+        <v>576</v>
       </c>
       <c r="D241" t="s">
-        <v>637</v>
+        <v>604</v>
       </c>
       <c r="E241">
         <v>1990</v>
@@ -8540,7 +9419,7 @@
         <v>25</v>
       </c>
       <c r="H241" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
@@ -8549,10 +9428,10 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>534</v>
+        <v>501</v>
       </c>
       <c r="C242" t="s">
-        <v>610</v>
+        <v>577</v>
       </c>
       <c r="D242" t="s">
         <v>82</v>
@@ -8567,7 +9446,7 @@
         <v>25</v>
       </c>
       <c r="H242" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
@@ -8576,13 +9455,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>535</v>
+        <v>502</v>
       </c>
       <c r="C243" t="s">
-        <v>611</v>
+        <v>578</v>
       </c>
       <c r="D243" t="s">
-        <v>662</v>
+        <v>629</v>
       </c>
       <c r="E243">
         <v>1990</v>
@@ -8594,7 +9473,7 @@
         <v>25</v>
       </c>
       <c r="H243" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
@@ -8603,13 +9482,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>536</v>
+        <v>503</v>
       </c>
       <c r="C244" t="s">
-        <v>612</v>
+        <v>579</v>
       </c>
       <c r="D244" t="s">
-        <v>658</v>
+        <v>625</v>
       </c>
       <c r="E244">
         <v>1990</v>
@@ -8621,7 +9500,7 @@
         <v>25</v>
       </c>
       <c r="H244" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
@@ -8630,13 +9509,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>537</v>
+        <v>504</v>
       </c>
       <c r="C245" t="s">
-        <v>613</v>
+        <v>580</v>
       </c>
       <c r="D245" t="s">
-        <v>649</v>
+        <v>616</v>
       </c>
       <c r="E245">
         <v>1990</v>
@@ -8648,7 +9527,7 @@
         <v>25</v>
       </c>
       <c r="H245" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
@@ -8657,13 +9536,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>538</v>
+        <v>505</v>
       </c>
       <c r="C246" t="s">
-        <v>614</v>
+        <v>581</v>
       </c>
       <c r="D246" t="s">
-        <v>654</v>
+        <v>621</v>
       </c>
       <c r="E246">
         <v>1990</v>
@@ -8675,7 +9554,7 @@
         <v>25</v>
       </c>
       <c r="H246" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
@@ -8684,13 +9563,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>539</v>
+        <v>506</v>
       </c>
       <c r="C247" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="D247" t="s">
-        <v>663</v>
+        <v>630</v>
       </c>
       <c r="E247">
         <v>1990</v>
@@ -8702,7 +9581,7 @@
         <v>25</v>
       </c>
       <c r="H247" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
@@ -8711,13 +9590,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>540</v>
+        <v>507</v>
       </c>
       <c r="C248" t="s">
-        <v>616</v>
+        <v>583</v>
       </c>
       <c r="D248" t="s">
-        <v>628</v>
+        <v>595</v>
       </c>
       <c r="E248">
         <v>1990</v>
@@ -8729,7 +9608,7 @@
         <v>25</v>
       </c>
       <c r="H248" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
@@ -8738,13 +9617,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>541</v>
+        <v>508</v>
       </c>
       <c r="C249" t="s">
-        <v>617</v>
+        <v>584</v>
       </c>
       <c r="D249" t="s">
-        <v>643</v>
+        <v>610</v>
       </c>
       <c r="E249">
         <v>1990</v>
@@ -8756,7 +9635,7 @@
         <v>25</v>
       </c>
       <c r="H249" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
@@ -8765,13 +9644,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>542</v>
+        <v>509</v>
       </c>
       <c r="C250" t="s">
-        <v>618</v>
+        <v>585</v>
       </c>
       <c r="D250" t="s">
-        <v>648</v>
+        <v>615</v>
       </c>
       <c r="E250">
         <v>1990</v>
@@ -8783,7 +9662,7 @@
         <v>25</v>
       </c>
       <c r="H250" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
@@ -8792,13 +9671,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>543</v>
+        <v>510</v>
       </c>
       <c r="C251" t="s">
-        <v>619</v>
+        <v>586</v>
       </c>
       <c r="D251" t="s">
-        <v>641</v>
+        <v>608</v>
       </c>
       <c r="E251">
         <v>1990</v>
@@ -8810,7 +9689,7 @@
         <v>25</v>
       </c>
       <c r="H251" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
@@ -8819,13 +9698,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>544</v>
+        <v>511</v>
       </c>
       <c r="C252" t="s">
-        <v>620</v>
+        <v>587</v>
       </c>
       <c r="D252" t="s">
-        <v>664</v>
+        <v>631</v>
       </c>
       <c r="E252">
         <v>1990</v>
@@ -8837,7 +9716,7 @@
         <v>25</v>
       </c>
       <c r="H252" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
@@ -8846,13 +9725,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>545</v>
+        <v>512</v>
       </c>
       <c r="C253" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="D253" t="s">
-        <v>663</v>
+        <v>630</v>
       </c>
       <c r="E253">
         <v>1990</v>
@@ -8864,7 +9743,7 @@
         <v>25</v>
       </c>
       <c r="H253" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
@@ -8873,13 +9752,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>546</v>
+        <v>513</v>
       </c>
       <c r="C254" t="s">
-        <v>622</v>
+        <v>589</v>
       </c>
       <c r="D254" t="s">
-        <v>657</v>
+        <v>624</v>
       </c>
       <c r="E254">
         <v>1990</v>
@@ -8891,7 +9770,7 @@
         <v>25</v>
       </c>
       <c r="H254" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
@@ -8900,13 +9779,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>547</v>
+        <v>514</v>
       </c>
       <c r="C255" t="s">
-        <v>623</v>
+        <v>590</v>
       </c>
       <c r="D255" t="s">
-        <v>639</v>
+        <v>606</v>
       </c>
       <c r="E255">
         <v>1990</v>
@@ -8918,7 +9797,7 @@
         <v>25</v>
       </c>
       <c r="H255" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
@@ -8927,13 +9806,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>548</v>
+        <v>515</v>
       </c>
       <c r="C256" t="s">
-        <v>624</v>
+        <v>591</v>
       </c>
       <c r="D256" t="s">
-        <v>665</v>
+        <v>632</v>
       </c>
       <c r="E256">
         <v>1990</v>
@@ -8945,7 +9824,7 @@
         <v>25</v>
       </c>
       <c r="H256" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
@@ -8954,13 +9833,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>690</v>
+        <v>657</v>
       </c>
       <c r="C257" t="s">
-        <v>668</v>
+        <v>635</v>
       </c>
       <c r="D257" t="s">
-        <v>668</v>
+        <v>635</v>
       </c>
       <c r="E257">
         <v>1990</v>
@@ -8969,7 +9848,7 @@
         <v>23</v>
       </c>
       <c r="G257" t="s">
-        <v>667</v>
+        <v>634</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
@@ -8978,13 +9857,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>691</v>
+        <v>658</v>
       </c>
       <c r="C258" t="s">
-        <v>669</v>
+        <v>636</v>
       </c>
       <c r="D258" t="s">
-        <v>669</v>
+        <v>636</v>
       </c>
       <c r="E258">
         <v>1990</v>
@@ -8993,7 +9872,7 @@
         <v>23</v>
       </c>
       <c r="G258" t="s">
-        <v>667</v>
+        <v>634</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
@@ -9002,13 +9881,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>692</v>
+        <v>659</v>
       </c>
       <c r="C259" t="s">
-        <v>670</v>
+        <v>637</v>
       </c>
       <c r="D259" t="s">
-        <v>670</v>
+        <v>637</v>
       </c>
       <c r="E259">
         <v>1990</v>
@@ -9017,7 +9896,7 @@
         <v>23</v>
       </c>
       <c r="G259" t="s">
-        <v>667</v>
+        <v>634</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
@@ -9026,13 +9905,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>693</v>
+        <v>660</v>
       </c>
       <c r="C260" t="s">
-        <v>671</v>
+        <v>638</v>
       </c>
       <c r="D260" t="s">
-        <v>671</v>
+        <v>638</v>
       </c>
       <c r="E260">
         <v>1990</v>
@@ -9041,7 +9920,7 @@
         <v>23</v>
       </c>
       <c r="G260" t="s">
-        <v>667</v>
+        <v>634</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
@@ -9050,13 +9929,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>694</v>
+        <v>661</v>
       </c>
       <c r="C261" t="s">
-        <v>672</v>
+        <v>639</v>
       </c>
       <c r="D261" t="s">
-        <v>672</v>
+        <v>639</v>
       </c>
       <c r="E261">
         <v>1990</v>
@@ -9065,7 +9944,7 @@
         <v>23</v>
       </c>
       <c r="G261" t="s">
-        <v>667</v>
+        <v>634</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
@@ -9074,13 +9953,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>695</v>
+        <v>662</v>
       </c>
       <c r="C262" t="s">
-        <v>673</v>
+        <v>640</v>
       </c>
       <c r="D262" t="s">
-        <v>673</v>
+        <v>640</v>
       </c>
       <c r="E262">
         <v>1990</v>
@@ -9089,7 +9968,7 @@
         <v>23</v>
       </c>
       <c r="G262" t="s">
-        <v>667</v>
+        <v>634</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
@@ -9098,13 +9977,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>696</v>
+        <v>663</v>
       </c>
       <c r="C263" t="s">
-        <v>674</v>
+        <v>641</v>
       </c>
       <c r="D263" t="s">
-        <v>674</v>
+        <v>641</v>
       </c>
       <c r="E263">
         <v>1990</v>
@@ -9113,7 +9992,7 @@
         <v>23</v>
       </c>
       <c r="G263" t="s">
-        <v>667</v>
+        <v>634</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
@@ -9122,13 +10001,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>697</v>
+        <v>664</v>
       </c>
       <c r="C264" t="s">
-        <v>675</v>
+        <v>642</v>
       </c>
       <c r="D264" t="s">
-        <v>675</v>
+        <v>642</v>
       </c>
       <c r="E264">
         <v>1990</v>
@@ -9137,22 +10016,22 @@
         <v>23</v>
       </c>
       <c r="G264" t="s">
-        <v>667</v>
+        <v>634</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265">
-        <f t="shared" ref="A265:A279" si="4">A264+1</f>
+        <f t="shared" ref="A265:A328" si="4">A264+1</f>
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>698</v>
+        <v>665</v>
       </c>
       <c r="C265" t="s">
-        <v>676</v>
+        <v>643</v>
       </c>
       <c r="D265" t="s">
-        <v>676</v>
+        <v>643</v>
       </c>
       <c r="E265">
         <v>1990</v>
@@ -9161,7 +10040,7 @@
         <v>23</v>
       </c>
       <c r="G265" t="s">
-        <v>667</v>
+        <v>634</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
@@ -9170,13 +10049,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>699</v>
+        <v>666</v>
       </c>
       <c r="C266" t="s">
-        <v>677</v>
+        <v>644</v>
       </c>
       <c r="D266" t="s">
-        <v>677</v>
+        <v>644</v>
       </c>
       <c r="E266">
         <v>1990</v>
@@ -9185,7 +10064,7 @@
         <v>23</v>
       </c>
       <c r="G266" t="s">
-        <v>667</v>
+        <v>634</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
@@ -9194,13 +10073,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="C267" t="s">
-        <v>678</v>
+        <v>645</v>
       </c>
       <c r="D267" t="s">
-        <v>678</v>
+        <v>645</v>
       </c>
       <c r="E267">
         <v>1990</v>
@@ -9209,7 +10088,7 @@
         <v>23</v>
       </c>
       <c r="G267" t="s">
-        <v>667</v>
+        <v>634</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.3">
@@ -9218,13 +10097,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>701</v>
+        <v>668</v>
       </c>
       <c r="C268" t="s">
-        <v>679</v>
+        <v>646</v>
       </c>
       <c r="D268" t="s">
-        <v>679</v>
+        <v>646</v>
       </c>
       <c r="E268">
         <v>1990</v>
@@ -9233,7 +10112,7 @@
         <v>23</v>
       </c>
       <c r="G268" t="s">
-        <v>667</v>
+        <v>634</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.3">
@@ -9242,13 +10121,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>702</v>
+        <v>669</v>
       </c>
       <c r="C269" t="s">
-        <v>680</v>
+        <v>647</v>
       </c>
       <c r="D269" t="s">
-        <v>680</v>
+        <v>647</v>
       </c>
       <c r="E269">
         <v>1990</v>
@@ -9257,7 +10136,7 @@
         <v>23</v>
       </c>
       <c r="G269" t="s">
-        <v>667</v>
+        <v>634</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.3">
@@ -9266,13 +10145,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>703</v>
+        <v>670</v>
       </c>
       <c r="C270" t="s">
-        <v>681</v>
+        <v>648</v>
       </c>
       <c r="D270" t="s">
-        <v>681</v>
+        <v>648</v>
       </c>
       <c r="E270">
         <v>1990</v>
@@ -9281,7 +10160,7 @@
         <v>23</v>
       </c>
       <c r="G270" t="s">
-        <v>667</v>
+        <v>634</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
@@ -9290,13 +10169,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>704</v>
+        <v>671</v>
       </c>
       <c r="C271" t="s">
-        <v>682</v>
+        <v>649</v>
       </c>
       <c r="D271" t="s">
-        <v>682</v>
+        <v>649</v>
       </c>
       <c r="E271">
         <v>1990</v>
@@ -9305,7 +10184,7 @@
         <v>23</v>
       </c>
       <c r="G271" t="s">
-        <v>667</v>
+        <v>634</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
@@ -9314,13 +10193,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>705</v>
+        <v>672</v>
       </c>
       <c r="C272" t="s">
-        <v>683</v>
+        <v>650</v>
       </c>
       <c r="D272" t="s">
-        <v>683</v>
+        <v>650</v>
       </c>
       <c r="E272">
         <v>1990</v>
@@ -9329,7 +10208,7 @@
         <v>23</v>
       </c>
       <c r="G272" t="s">
-        <v>667</v>
+        <v>634</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
@@ -9338,13 +10217,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>706</v>
+        <v>673</v>
       </c>
       <c r="C273" t="s">
-        <v>684</v>
+        <v>651</v>
       </c>
       <c r="D273" t="s">
-        <v>684</v>
+        <v>651</v>
       </c>
       <c r="E273">
         <v>1990</v>
@@ -9353,7 +10232,7 @@
         <v>23</v>
       </c>
       <c r="G273" t="s">
-        <v>667</v>
+        <v>634</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
@@ -9362,13 +10241,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>707</v>
+        <v>674</v>
       </c>
       <c r="C274" t="s">
-        <v>685</v>
+        <v>652</v>
       </c>
       <c r="D274" t="s">
-        <v>685</v>
+        <v>652</v>
       </c>
       <c r="E274">
         <v>1990</v>
@@ -9377,7 +10256,7 @@
         <v>23</v>
       </c>
       <c r="G274" t="s">
-        <v>667</v>
+        <v>634</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
@@ -9386,13 +10265,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>708</v>
+        <v>675</v>
       </c>
       <c r="C275" t="s">
-        <v>686</v>
+        <v>653</v>
       </c>
       <c r="D275" t="s">
-        <v>686</v>
+        <v>653</v>
       </c>
       <c r="E275">
         <v>1990</v>
@@ -9401,7 +10280,7 @@
         <v>23</v>
       </c>
       <c r="G275" t="s">
-        <v>667</v>
+        <v>634</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
@@ -9410,13 +10289,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>709</v>
+        <v>676</v>
       </c>
       <c r="C276" t="s">
-        <v>687</v>
+        <v>654</v>
       </c>
       <c r="D276" t="s">
-        <v>687</v>
+        <v>654</v>
       </c>
       <c r="E276">
         <v>1990</v>
@@ -9425,7 +10304,7 @@
         <v>23</v>
       </c>
       <c r="G276" t="s">
-        <v>667</v>
+        <v>634</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
@@ -9434,13 +10313,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>710</v>
+        <v>677</v>
       </c>
       <c r="C277" t="s">
-        <v>630</v>
+        <v>597</v>
       </c>
       <c r="D277" t="s">
-        <v>630</v>
+        <v>597</v>
       </c>
       <c r="E277">
         <v>1990</v>
@@ -9449,7 +10328,7 @@
         <v>23</v>
       </c>
       <c r="G277" t="s">
-        <v>667</v>
+        <v>634</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
@@ -9458,13 +10337,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>711</v>
+        <v>678</v>
       </c>
       <c r="C278" t="s">
-        <v>688</v>
+        <v>655</v>
       </c>
       <c r="D278" t="s">
-        <v>688</v>
+        <v>655</v>
       </c>
       <c r="E278">
         <v>1990</v>
@@ -9473,7 +10352,7 @@
         <v>23</v>
       </c>
       <c r="G278" t="s">
-        <v>667</v>
+        <v>634</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
@@ -9482,22 +10361,2782 @@
         <v>277</v>
       </c>
       <c r="B279" t="s">
+        <v>679</v>
+      </c>
+      <c r="C279" t="s">
+        <v>656</v>
+      </c>
+      <c r="D279" t="s">
+        <v>656</v>
+      </c>
+      <c r="E279">
+        <v>1990</v>
+      </c>
+      <c r="F279" t="s">
+        <v>23</v>
+      </c>
+      <c r="G279" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <f t="shared" si="4"/>
+        <v>278</v>
+      </c>
+      <c r="B280" t="s">
+        <v>899</v>
+      </c>
+      <c r="C280" t="s">
+        <v>688</v>
+      </c>
+      <c r="D280" t="s">
+        <v>778</v>
+      </c>
+      <c r="E280">
+        <v>1990</v>
+      </c>
+      <c r="F280" t="s">
+        <v>23</v>
+      </c>
+      <c r="G280" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="B281" t="s">
+        <v>900</v>
+      </c>
+      <c r="C281" t="s">
+        <v>689</v>
+      </c>
+      <c r="D281" t="s">
+        <v>779</v>
+      </c>
+      <c r="E281">
+        <v>1990</v>
+      </c>
+      <c r="F281" t="s">
+        <v>23</v>
+      </c>
+      <c r="G281" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <f t="shared" si="4"/>
+        <v>280</v>
+      </c>
+      <c r="B282" t="s">
+        <v>901</v>
+      </c>
+      <c r="C282" t="s">
+        <v>690</v>
+      </c>
+      <c r="D282" t="s">
+        <v>780</v>
+      </c>
+      <c r="E282">
+        <v>1990</v>
+      </c>
+      <c r="F282" t="s">
+        <v>23</v>
+      </c>
+      <c r="G282" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <f t="shared" si="4"/>
+        <v>281</v>
+      </c>
+      <c r="B283" t="s">
+        <v>902</v>
+      </c>
+      <c r="C283" t="s">
+        <v>691</v>
+      </c>
+      <c r="D283" t="s">
+        <v>139</v>
+      </c>
+      <c r="E283">
+        <v>1990</v>
+      </c>
+      <c r="F283" t="s">
+        <v>23</v>
+      </c>
+      <c r="G283" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <f t="shared" si="4"/>
+        <v>282</v>
+      </c>
+      <c r="B284" t="s">
+        <v>903</v>
+      </c>
+      <c r="C284" t="s">
+        <v>692</v>
+      </c>
+      <c r="D284" t="s">
+        <v>781</v>
+      </c>
+      <c r="E284">
+        <v>1990</v>
+      </c>
+      <c r="F284" t="s">
+        <v>23</v>
+      </c>
+      <c r="G284" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <f t="shared" si="4"/>
+        <v>283</v>
+      </c>
+      <c r="B285" t="s">
+        <v>904</v>
+      </c>
+      <c r="C285" t="s">
+        <v>693</v>
+      </c>
+      <c r="D285" t="s">
+        <v>139</v>
+      </c>
+      <c r="E285">
+        <v>1990</v>
+      </c>
+      <c r="F285" t="s">
+        <v>23</v>
+      </c>
+      <c r="G285" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <f t="shared" si="4"/>
+        <v>284</v>
+      </c>
+      <c r="B286" t="s">
+        <v>905</v>
+      </c>
+      <c r="C286" t="s">
+        <v>694</v>
+      </c>
+      <c r="D286" t="s">
+        <v>782</v>
+      </c>
+      <c r="E286">
+        <v>1990</v>
+      </c>
+      <c r="F286" t="s">
+        <v>23</v>
+      </c>
+      <c r="G286" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <f t="shared" si="4"/>
+        <v>285</v>
+      </c>
+      <c r="B287" t="s">
+        <v>906</v>
+      </c>
+      <c r="C287" t="s">
+        <v>695</v>
+      </c>
+      <c r="D287" t="s">
+        <v>783</v>
+      </c>
+      <c r="E287">
+        <v>1990</v>
+      </c>
+      <c r="F287" t="s">
+        <v>23</v>
+      </c>
+      <c r="G287" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <f t="shared" si="4"/>
+        <v>286</v>
+      </c>
+      <c r="B288" t="s">
+        <v>907</v>
+      </c>
+      <c r="C288" t="s">
+        <v>696</v>
+      </c>
+      <c r="D288" t="s">
+        <v>784</v>
+      </c>
+      <c r="E288">
+        <v>1990</v>
+      </c>
+      <c r="F288" t="s">
+        <v>23</v>
+      </c>
+      <c r="G288" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <f t="shared" si="4"/>
+        <v>287</v>
+      </c>
+      <c r="B289" t="s">
+        <v>908</v>
+      </c>
+      <c r="C289" t="s">
+        <v>697</v>
+      </c>
+      <c r="D289" t="s">
+        <v>785</v>
+      </c>
+      <c r="E289">
+        <v>1990</v>
+      </c>
+      <c r="F289" t="s">
+        <v>23</v>
+      </c>
+      <c r="G289" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <f t="shared" si="4"/>
+        <v>288</v>
+      </c>
+      <c r="B290" t="s">
+        <v>909</v>
+      </c>
+      <c r="C290" t="s">
+        <v>698</v>
+      </c>
+      <c r="D290" t="s">
+        <v>786</v>
+      </c>
+      <c r="E290">
+        <v>1990</v>
+      </c>
+      <c r="F290" t="s">
+        <v>23</v>
+      </c>
+      <c r="G290" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <f t="shared" si="4"/>
+        <v>289</v>
+      </c>
+      <c r="B291" t="s">
+        <v>910</v>
+      </c>
+      <c r="C291" t="s">
+        <v>699</v>
+      </c>
+      <c r="D291" t="s">
+        <v>787</v>
+      </c>
+      <c r="E291">
+        <v>1990</v>
+      </c>
+      <c r="F291" t="s">
+        <v>23</v>
+      </c>
+      <c r="G291" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <f t="shared" si="4"/>
+        <v>290</v>
+      </c>
+      <c r="B292" t="s">
+        <v>911</v>
+      </c>
+      <c r="C292" t="s">
+        <v>700</v>
+      </c>
+      <c r="D292" t="s">
+        <v>788</v>
+      </c>
+      <c r="E292">
+        <v>1990</v>
+      </c>
+      <c r="F292" t="s">
+        <v>23</v>
+      </c>
+      <c r="G292" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <f t="shared" si="4"/>
+        <v>291</v>
+      </c>
+      <c r="B293" t="s">
+        <v>912</v>
+      </c>
+      <c r="C293" t="s">
+        <v>701</v>
+      </c>
+      <c r="D293" t="s">
+        <v>789</v>
+      </c>
+      <c r="E293">
+        <v>1990</v>
+      </c>
+      <c r="F293" t="s">
+        <v>23</v>
+      </c>
+      <c r="G293" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <f t="shared" si="4"/>
+        <v>292</v>
+      </c>
+      <c r="B294" t="s">
+        <v>913</v>
+      </c>
+      <c r="C294" t="s">
+        <v>702</v>
+      </c>
+      <c r="D294" t="s">
+        <v>790</v>
+      </c>
+      <c r="E294">
+        <v>1990</v>
+      </c>
+      <c r="F294" t="s">
+        <v>23</v>
+      </c>
+      <c r="G294" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <f t="shared" si="4"/>
+        <v>293</v>
+      </c>
+      <c r="B295" t="s">
+        <v>914</v>
+      </c>
+      <c r="C295" t="s">
+        <v>703</v>
+      </c>
+      <c r="D295" t="s">
+        <v>791</v>
+      </c>
+      <c r="E295">
+        <v>1990</v>
+      </c>
+      <c r="F295" t="s">
+        <v>23</v>
+      </c>
+      <c r="G295" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <f t="shared" si="4"/>
+        <v>294</v>
+      </c>
+      <c r="B296" t="s">
+        <v>915</v>
+      </c>
+      <c r="C296" t="s">
+        <v>704</v>
+      </c>
+      <c r="D296" t="s">
+        <v>792</v>
+      </c>
+      <c r="E296">
+        <v>1990</v>
+      </c>
+      <c r="F296" t="s">
+        <v>23</v>
+      </c>
+      <c r="G296" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <f t="shared" si="4"/>
+        <v>295</v>
+      </c>
+      <c r="B297" t="s">
+        <v>916</v>
+      </c>
+      <c r="C297" t="s">
+        <v>705</v>
+      </c>
+      <c r="D297" t="s">
+        <v>262</v>
+      </c>
+      <c r="E297">
+        <v>1990</v>
+      </c>
+      <c r="F297" t="s">
+        <v>23</v>
+      </c>
+      <c r="G297" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <f t="shared" si="4"/>
+        <v>296</v>
+      </c>
+      <c r="B298" t="s">
+        <v>917</v>
+      </c>
+      <c r="C298" t="s">
+        <v>706</v>
+      </c>
+      <c r="D298" t="s">
+        <v>793</v>
+      </c>
+      <c r="E298">
+        <v>1990</v>
+      </c>
+      <c r="F298" t="s">
+        <v>23</v>
+      </c>
+      <c r="G298" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <f t="shared" si="4"/>
+        <v>297</v>
+      </c>
+      <c r="B299" t="s">
+        <v>918</v>
+      </c>
+      <c r="C299" t="s">
+        <v>707</v>
+      </c>
+      <c r="D299" t="s">
+        <v>794</v>
+      </c>
+      <c r="E299">
+        <v>1990</v>
+      </c>
+      <c r="F299" t="s">
+        <v>23</v>
+      </c>
+      <c r="G299" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <f t="shared" si="4"/>
+        <v>298</v>
+      </c>
+      <c r="B300" t="s">
+        <v>919</v>
+      </c>
+      <c r="C300" t="s">
+        <v>708</v>
+      </c>
+      <c r="D300" t="s">
+        <v>795</v>
+      </c>
+      <c r="E300">
+        <v>1990</v>
+      </c>
+      <c r="F300" t="s">
+        <v>23</v>
+      </c>
+      <c r="G300" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <f t="shared" si="4"/>
+        <v>299</v>
+      </c>
+      <c r="B301" t="s">
+        <v>920</v>
+      </c>
+      <c r="C301" t="s">
+        <v>709</v>
+      </c>
+      <c r="D301" t="s">
+        <v>785</v>
+      </c>
+      <c r="E301">
+        <v>1990</v>
+      </c>
+      <c r="F301" t="s">
+        <v>23</v>
+      </c>
+      <c r="G301" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="B302" t="s">
+        <v>921</v>
+      </c>
+      <c r="C302" t="s">
+        <v>710</v>
+      </c>
+      <c r="D302" t="s">
+        <v>796</v>
+      </c>
+      <c r="E302">
+        <v>1990</v>
+      </c>
+      <c r="F302" t="s">
+        <v>23</v>
+      </c>
+      <c r="G302" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <f t="shared" si="4"/>
+        <v>301</v>
+      </c>
+      <c r="B303" t="s">
+        <v>922</v>
+      </c>
+      <c r="C303" t="s">
+        <v>711</v>
+      </c>
+      <c r="D303" t="s">
+        <v>797</v>
+      </c>
+      <c r="E303">
+        <v>1990</v>
+      </c>
+      <c r="F303" t="s">
+        <v>23</v>
+      </c>
+      <c r="G303" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <f t="shared" si="4"/>
+        <v>302</v>
+      </c>
+      <c r="B304" t="s">
+        <v>923</v>
+      </c>
+      <c r="C304" t="s">
         <v>712</v>
       </c>
-      <c r="C279" t="s">
-        <v>689</v>
-      </c>
-      <c r="D279" t="s">
-        <v>689</v>
-      </c>
-      <c r="E279">
-        <v>1990</v>
-      </c>
-      <c r="F279" t="s">
-        <v>23</v>
-      </c>
-      <c r="G279" t="s">
-        <v>667</v>
+      <c r="D304" t="s">
+        <v>798</v>
+      </c>
+      <c r="E304">
+        <v>1990</v>
+      </c>
+      <c r="F304" t="s">
+        <v>23</v>
+      </c>
+      <c r="G304" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <f t="shared" si="4"/>
+        <v>303</v>
+      </c>
+      <c r="B305" t="s">
+        <v>924</v>
+      </c>
+      <c r="C305" t="s">
+        <v>713</v>
+      </c>
+      <c r="D305" t="s">
+        <v>799</v>
+      </c>
+      <c r="E305">
+        <v>1990</v>
+      </c>
+      <c r="F305" t="s">
+        <v>23</v>
+      </c>
+      <c r="G305" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <f t="shared" si="4"/>
+        <v>304</v>
+      </c>
+      <c r="B306" t="s">
+        <v>925</v>
+      </c>
+      <c r="C306" t="s">
+        <v>714</v>
+      </c>
+      <c r="D306" t="s">
+        <v>800</v>
+      </c>
+      <c r="E306">
+        <v>1990</v>
+      </c>
+      <c r="F306" t="s">
+        <v>23</v>
+      </c>
+      <c r="G306" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <f t="shared" si="4"/>
+        <v>305</v>
+      </c>
+      <c r="B307" t="s">
+        <v>926</v>
+      </c>
+      <c r="C307" t="s">
+        <v>715</v>
+      </c>
+      <c r="D307" t="s">
+        <v>801</v>
+      </c>
+      <c r="E307">
+        <v>1990</v>
+      </c>
+      <c r="F307" t="s">
+        <v>23</v>
+      </c>
+      <c r="G307" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <f t="shared" si="4"/>
+        <v>306</v>
+      </c>
+      <c r="B308" t="s">
+        <v>927</v>
+      </c>
+      <c r="C308" t="s">
+        <v>716</v>
+      </c>
+      <c r="D308" t="s">
+        <v>802</v>
+      </c>
+      <c r="E308">
+        <v>1990</v>
+      </c>
+      <c r="F308" t="s">
+        <v>23</v>
+      </c>
+      <c r="G308" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <f t="shared" si="4"/>
+        <v>307</v>
+      </c>
+      <c r="B309" t="s">
+        <v>928</v>
+      </c>
+      <c r="C309" t="s">
+        <v>717</v>
+      </c>
+      <c r="D309" t="s">
+        <v>803</v>
+      </c>
+      <c r="E309">
+        <v>1990</v>
+      </c>
+      <c r="F309" t="s">
+        <v>23</v>
+      </c>
+      <c r="G309" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <f t="shared" si="4"/>
+        <v>308</v>
+      </c>
+      <c r="B310" t="s">
+        <v>929</v>
+      </c>
+      <c r="C310" t="s">
+        <v>718</v>
+      </c>
+      <c r="D310" t="s">
+        <v>791</v>
+      </c>
+      <c r="E310">
+        <v>1990</v>
+      </c>
+      <c r="F310" t="s">
+        <v>23</v>
+      </c>
+      <c r="G310" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <f t="shared" si="4"/>
+        <v>309</v>
+      </c>
+      <c r="B311" t="s">
+        <v>930</v>
+      </c>
+      <c r="C311" t="s">
+        <v>719</v>
+      </c>
+      <c r="D311" t="s">
+        <v>804</v>
+      </c>
+      <c r="E311">
+        <v>1990</v>
+      </c>
+      <c r="F311" t="s">
+        <v>23</v>
+      </c>
+      <c r="G311" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <f t="shared" si="4"/>
+        <v>310</v>
+      </c>
+      <c r="B312" t="s">
+        <v>931</v>
+      </c>
+      <c r="C312" t="s">
+        <v>720</v>
+      </c>
+      <c r="D312" t="s">
+        <v>805</v>
+      </c>
+      <c r="E312">
+        <v>1990</v>
+      </c>
+      <c r="F312" t="s">
+        <v>23</v>
+      </c>
+      <c r="G312" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <f t="shared" si="4"/>
+        <v>311</v>
+      </c>
+      <c r="B313" t="s">
+        <v>932</v>
+      </c>
+      <c r="C313" t="s">
+        <v>721</v>
+      </c>
+      <c r="D313" t="s">
+        <v>806</v>
+      </c>
+      <c r="E313">
+        <v>1990</v>
+      </c>
+      <c r="F313" t="s">
+        <v>23</v>
+      </c>
+      <c r="G313" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <f t="shared" si="4"/>
+        <v>312</v>
+      </c>
+      <c r="B314" t="s">
+        <v>933</v>
+      </c>
+      <c r="C314" t="s">
+        <v>722</v>
+      </c>
+      <c r="D314" t="s">
+        <v>807</v>
+      </c>
+      <c r="E314">
+        <v>1990</v>
+      </c>
+      <c r="F314" t="s">
+        <v>23</v>
+      </c>
+      <c r="G314" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <f t="shared" si="4"/>
+        <v>313</v>
+      </c>
+      <c r="B315" t="s">
+        <v>934</v>
+      </c>
+      <c r="C315" t="s">
+        <v>723</v>
+      </c>
+      <c r="D315" t="s">
+        <v>808</v>
+      </c>
+      <c r="E315">
+        <v>1990</v>
+      </c>
+      <c r="F315" t="s">
+        <v>23</v>
+      </c>
+      <c r="G315" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <f t="shared" si="4"/>
+        <v>314</v>
+      </c>
+      <c r="B316" t="s">
+        <v>935</v>
+      </c>
+      <c r="C316" t="s">
+        <v>724</v>
+      </c>
+      <c r="D316" t="s">
+        <v>809</v>
+      </c>
+      <c r="E316">
+        <v>1990</v>
+      </c>
+      <c r="F316" t="s">
+        <v>23</v>
+      </c>
+      <c r="G316" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <f t="shared" si="4"/>
+        <v>315</v>
+      </c>
+      <c r="B317" t="s">
+        <v>936</v>
+      </c>
+      <c r="C317" t="s">
+        <v>725</v>
+      </c>
+      <c r="D317" t="s">
+        <v>810</v>
+      </c>
+      <c r="E317">
+        <v>1990</v>
+      </c>
+      <c r="F317" t="s">
+        <v>23</v>
+      </c>
+      <c r="G317" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <f t="shared" si="4"/>
+        <v>316</v>
+      </c>
+      <c r="B318" t="s">
+        <v>937</v>
+      </c>
+      <c r="C318" t="s">
+        <v>726</v>
+      </c>
+      <c r="D318" t="s">
+        <v>811</v>
+      </c>
+      <c r="E318">
+        <v>1990</v>
+      </c>
+      <c r="F318" t="s">
+        <v>23</v>
+      </c>
+      <c r="G318" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <f t="shared" si="4"/>
+        <v>317</v>
+      </c>
+      <c r="B319" t="s">
+        <v>938</v>
+      </c>
+      <c r="C319" t="s">
+        <v>727</v>
+      </c>
+      <c r="D319" t="s">
+        <v>790</v>
+      </c>
+      <c r="E319">
+        <v>1990</v>
+      </c>
+      <c r="F319" t="s">
+        <v>23</v>
+      </c>
+      <c r="G319" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <f t="shared" si="4"/>
+        <v>318</v>
+      </c>
+      <c r="B320" t="s">
+        <v>939</v>
+      </c>
+      <c r="C320" t="s">
+        <v>728</v>
+      </c>
+      <c r="D320" t="s">
+        <v>809</v>
+      </c>
+      <c r="E320">
+        <v>1990</v>
+      </c>
+      <c r="F320" t="s">
+        <v>23</v>
+      </c>
+      <c r="G320" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <f t="shared" si="4"/>
+        <v>319</v>
+      </c>
+      <c r="B321" t="s">
+        <v>940</v>
+      </c>
+      <c r="C321" t="s">
+        <v>729</v>
+      </c>
+      <c r="D321" t="s">
+        <v>811</v>
+      </c>
+      <c r="E321">
+        <v>1990</v>
+      </c>
+      <c r="F321" t="s">
+        <v>23</v>
+      </c>
+      <c r="G321" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <f t="shared" si="4"/>
+        <v>320</v>
+      </c>
+      <c r="B322" t="s">
+        <v>941</v>
+      </c>
+      <c r="C322" t="s">
+        <v>730</v>
+      </c>
+      <c r="D322" t="s">
+        <v>812</v>
+      </c>
+      <c r="E322">
+        <v>1990</v>
+      </c>
+      <c r="F322" t="s">
+        <v>23</v>
+      </c>
+      <c r="G322" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <f t="shared" si="4"/>
+        <v>321</v>
+      </c>
+      <c r="B323" t="s">
+        <v>942</v>
+      </c>
+      <c r="C323" t="s">
+        <v>731</v>
+      </c>
+      <c r="D323" t="s">
+        <v>813</v>
+      </c>
+      <c r="E323">
+        <v>1990</v>
+      </c>
+      <c r="F323" t="s">
+        <v>23</v>
+      </c>
+      <c r="G323" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <f t="shared" si="4"/>
+        <v>322</v>
+      </c>
+      <c r="B324" t="s">
+        <v>943</v>
+      </c>
+      <c r="C324" t="s">
+        <v>732</v>
+      </c>
+      <c r="D324" t="s">
+        <v>808</v>
+      </c>
+      <c r="E324">
+        <v>1990</v>
+      </c>
+      <c r="F324" t="s">
+        <v>23</v>
+      </c>
+      <c r="G324" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <f t="shared" si="4"/>
+        <v>323</v>
+      </c>
+      <c r="B325" t="s">
+        <v>944</v>
+      </c>
+      <c r="C325" t="s">
+        <v>733</v>
+      </c>
+      <c r="D325" t="s">
+        <v>119</v>
+      </c>
+      <c r="E325">
+        <v>1990</v>
+      </c>
+      <c r="F325" t="s">
+        <v>23</v>
+      </c>
+      <c r="G325" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <f t="shared" si="4"/>
+        <v>324</v>
+      </c>
+      <c r="B326" t="s">
+        <v>945</v>
+      </c>
+      <c r="C326" t="s">
+        <v>734</v>
+      </c>
+      <c r="D326" t="s">
+        <v>805</v>
+      </c>
+      <c r="E326">
+        <v>1990</v>
+      </c>
+      <c r="F326" t="s">
+        <v>23</v>
+      </c>
+      <c r="G326" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <f t="shared" si="4"/>
+        <v>325</v>
+      </c>
+      <c r="B327" t="s">
+        <v>946</v>
+      </c>
+      <c r="C327" t="s">
+        <v>735</v>
+      </c>
+      <c r="D327" t="s">
+        <v>814</v>
+      </c>
+      <c r="E327">
+        <v>1990</v>
+      </c>
+      <c r="F327" t="s">
+        <v>23</v>
+      </c>
+      <c r="G327" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <f t="shared" si="4"/>
+        <v>326</v>
+      </c>
+      <c r="B328" t="s">
+        <v>947</v>
+      </c>
+      <c r="C328" t="s">
+        <v>736</v>
+      </c>
+      <c r="D328" t="s">
+        <v>815</v>
+      </c>
+      <c r="E328">
+        <v>1990</v>
+      </c>
+      <c r="F328" t="s">
+        <v>23</v>
+      </c>
+      <c r="G328" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <f t="shared" ref="A329:A392" si="5">A328+1</f>
+        <v>327</v>
+      </c>
+      <c r="B329" t="s">
+        <v>948</v>
+      </c>
+      <c r="C329" t="s">
+        <v>737</v>
+      </c>
+      <c r="D329" t="s">
+        <v>816</v>
+      </c>
+      <c r="E329">
+        <v>1990</v>
+      </c>
+      <c r="F329" t="s">
+        <v>23</v>
+      </c>
+      <c r="G329" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <f t="shared" si="5"/>
+        <v>328</v>
+      </c>
+      <c r="B330" t="s">
+        <v>949</v>
+      </c>
+      <c r="C330" t="s">
+        <v>738</v>
+      </c>
+      <c r="D330" t="s">
+        <v>817</v>
+      </c>
+      <c r="E330">
+        <v>1990</v>
+      </c>
+      <c r="F330" t="s">
+        <v>23</v>
+      </c>
+      <c r="G330" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <f t="shared" si="5"/>
+        <v>329</v>
+      </c>
+      <c r="B331" t="s">
+        <v>950</v>
+      </c>
+      <c r="C331" t="s">
+        <v>739</v>
+      </c>
+      <c r="D331" t="s">
+        <v>139</v>
+      </c>
+      <c r="E331">
+        <v>1990</v>
+      </c>
+      <c r="F331" t="s">
+        <v>23</v>
+      </c>
+      <c r="G331" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <f t="shared" si="5"/>
+        <v>330</v>
+      </c>
+      <c r="B332" t="s">
+        <v>951</v>
+      </c>
+      <c r="C332" t="s">
+        <v>740</v>
+      </c>
+      <c r="D332" t="s">
+        <v>818</v>
+      </c>
+      <c r="E332">
+        <v>1990</v>
+      </c>
+      <c r="F332" t="s">
+        <v>23</v>
+      </c>
+      <c r="G332" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <f t="shared" si="5"/>
+        <v>331</v>
+      </c>
+      <c r="B333" t="s">
+        <v>952</v>
+      </c>
+      <c r="C333" t="s">
+        <v>741</v>
+      </c>
+      <c r="D333" t="s">
+        <v>818</v>
+      </c>
+      <c r="E333">
+        <v>1990</v>
+      </c>
+      <c r="F333" t="s">
+        <v>23</v>
+      </c>
+      <c r="G333" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <f t="shared" si="5"/>
+        <v>332</v>
+      </c>
+      <c r="B334" t="s">
+        <v>953</v>
+      </c>
+      <c r="C334" t="s">
+        <v>742</v>
+      </c>
+      <c r="D334" t="s">
+        <v>819</v>
+      </c>
+      <c r="E334">
+        <v>1990</v>
+      </c>
+      <c r="F334" t="s">
+        <v>23</v>
+      </c>
+      <c r="G334" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <f t="shared" si="5"/>
+        <v>333</v>
+      </c>
+      <c r="B335" t="s">
+        <v>954</v>
+      </c>
+      <c r="C335" t="s">
+        <v>743</v>
+      </c>
+      <c r="D335" t="s">
+        <v>820</v>
+      </c>
+      <c r="E335">
+        <v>1990</v>
+      </c>
+      <c r="F335" t="s">
+        <v>23</v>
+      </c>
+      <c r="G335" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <f t="shared" si="5"/>
+        <v>334</v>
+      </c>
+      <c r="B336" t="s">
+        <v>955</v>
+      </c>
+      <c r="C336" t="s">
+        <v>744</v>
+      </c>
+      <c r="D336" t="s">
+        <v>821</v>
+      </c>
+      <c r="E336">
+        <v>1990</v>
+      </c>
+      <c r="F336" t="s">
+        <v>23</v>
+      </c>
+      <c r="G336" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <f t="shared" si="5"/>
+        <v>335</v>
+      </c>
+      <c r="B337" t="s">
+        <v>956</v>
+      </c>
+      <c r="C337" t="s">
+        <v>745</v>
+      </c>
+      <c r="D337" t="s">
+        <v>822</v>
+      </c>
+      <c r="E337">
+        <v>1990</v>
+      </c>
+      <c r="F337" t="s">
+        <v>23</v>
+      </c>
+      <c r="G337" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <f t="shared" si="5"/>
+        <v>336</v>
+      </c>
+      <c r="B338" t="s">
+        <v>957</v>
+      </c>
+      <c r="C338" t="s">
+        <v>746</v>
+      </c>
+      <c r="D338" t="s">
+        <v>823</v>
+      </c>
+      <c r="E338">
+        <v>1990</v>
+      </c>
+      <c r="F338" t="s">
+        <v>23</v>
+      </c>
+      <c r="G338" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <f t="shared" si="5"/>
+        <v>337</v>
+      </c>
+      <c r="B339" t="s">
+        <v>958</v>
+      </c>
+      <c r="C339" t="s">
+        <v>747</v>
+      </c>
+      <c r="D339" t="s">
+        <v>786</v>
+      </c>
+      <c r="E339">
+        <v>1990</v>
+      </c>
+      <c r="F339" t="s">
+        <v>23</v>
+      </c>
+      <c r="G339" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <f t="shared" si="5"/>
+        <v>338</v>
+      </c>
+      <c r="B340" t="s">
+        <v>959</v>
+      </c>
+      <c r="C340" t="s">
+        <v>748</v>
+      </c>
+      <c r="D340" t="s">
+        <v>824</v>
+      </c>
+      <c r="E340">
+        <v>1990</v>
+      </c>
+      <c r="F340" t="s">
+        <v>23</v>
+      </c>
+      <c r="G340" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <f t="shared" si="5"/>
+        <v>339</v>
+      </c>
+      <c r="B341" t="s">
+        <v>960</v>
+      </c>
+      <c r="C341" t="s">
+        <v>749</v>
+      </c>
+      <c r="D341" t="s">
+        <v>825</v>
+      </c>
+      <c r="E341">
+        <v>1990</v>
+      </c>
+      <c r="F341" t="s">
+        <v>23</v>
+      </c>
+      <c r="G341" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <f t="shared" si="5"/>
+        <v>340</v>
+      </c>
+      <c r="B342" t="s">
+        <v>961</v>
+      </c>
+      <c r="C342" t="s">
+        <v>750</v>
+      </c>
+      <c r="D342" t="s">
+        <v>826</v>
+      </c>
+      <c r="E342">
+        <v>1990</v>
+      </c>
+      <c r="F342" t="s">
+        <v>23</v>
+      </c>
+      <c r="G342" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <f t="shared" si="5"/>
+        <v>341</v>
+      </c>
+      <c r="B343" t="s">
+        <v>962</v>
+      </c>
+      <c r="C343" t="s">
+        <v>751</v>
+      </c>
+      <c r="D343" t="s">
+        <v>827</v>
+      </c>
+      <c r="E343">
+        <v>1990</v>
+      </c>
+      <c r="F343" t="s">
+        <v>23</v>
+      </c>
+      <c r="G343" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <f t="shared" si="5"/>
+        <v>342</v>
+      </c>
+      <c r="B344" t="s">
+        <v>963</v>
+      </c>
+      <c r="C344" t="s">
+        <v>752</v>
+      </c>
+      <c r="D344" t="s">
+        <v>828</v>
+      </c>
+      <c r="E344">
+        <v>1990</v>
+      </c>
+      <c r="F344" t="s">
+        <v>23</v>
+      </c>
+      <c r="G344" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <f t="shared" si="5"/>
+        <v>343</v>
+      </c>
+      <c r="B345" t="s">
+        <v>964</v>
+      </c>
+      <c r="C345" t="s">
+        <v>753</v>
+      </c>
+      <c r="D345" t="s">
+        <v>784</v>
+      </c>
+      <c r="E345">
+        <v>1990</v>
+      </c>
+      <c r="F345" t="s">
+        <v>23</v>
+      </c>
+      <c r="G345" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <f t="shared" si="5"/>
+        <v>344</v>
+      </c>
+      <c r="B346" t="s">
+        <v>965</v>
+      </c>
+      <c r="C346" t="s">
+        <v>754</v>
+      </c>
+      <c r="D346" t="s">
+        <v>794</v>
+      </c>
+      <c r="E346">
+        <v>1990</v>
+      </c>
+      <c r="F346" t="s">
+        <v>23</v>
+      </c>
+      <c r="G346" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <f t="shared" si="5"/>
+        <v>345</v>
+      </c>
+      <c r="B347" t="s">
+        <v>966</v>
+      </c>
+      <c r="C347" t="s">
+        <v>755</v>
+      </c>
+      <c r="D347" t="s">
+        <v>829</v>
+      </c>
+      <c r="E347">
+        <v>1990</v>
+      </c>
+      <c r="F347" t="s">
+        <v>23</v>
+      </c>
+      <c r="G347" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <f t="shared" si="5"/>
+        <v>346</v>
+      </c>
+      <c r="B348" t="s">
+        <v>967</v>
+      </c>
+      <c r="C348" t="s">
+        <v>756</v>
+      </c>
+      <c r="D348" t="s">
+        <v>785</v>
+      </c>
+      <c r="E348">
+        <v>1990</v>
+      </c>
+      <c r="F348" t="s">
+        <v>23</v>
+      </c>
+      <c r="G348" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <f t="shared" si="5"/>
+        <v>347</v>
+      </c>
+      <c r="B349" t="s">
+        <v>968</v>
+      </c>
+      <c r="C349" t="s">
+        <v>757</v>
+      </c>
+      <c r="D349" t="s">
+        <v>825</v>
+      </c>
+      <c r="E349">
+        <v>1990</v>
+      </c>
+      <c r="F349" t="s">
+        <v>23</v>
+      </c>
+      <c r="G349" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <f t="shared" si="5"/>
+        <v>348</v>
+      </c>
+      <c r="B350" t="s">
+        <v>969</v>
+      </c>
+      <c r="C350" t="s">
+        <v>758</v>
+      </c>
+      <c r="D350" t="s">
+        <v>830</v>
+      </c>
+      <c r="E350">
+        <v>1990</v>
+      </c>
+      <c r="F350" t="s">
+        <v>23</v>
+      </c>
+      <c r="G350" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <f t="shared" si="5"/>
+        <v>349</v>
+      </c>
+      <c r="B351" t="s">
+        <v>970</v>
+      </c>
+      <c r="C351" t="s">
+        <v>759</v>
+      </c>
+      <c r="D351" t="s">
+        <v>831</v>
+      </c>
+      <c r="E351">
+        <v>1990</v>
+      </c>
+      <c r="F351" t="s">
+        <v>23</v>
+      </c>
+      <c r="G351" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="B352" t="s">
+        <v>971</v>
+      </c>
+      <c r="C352" t="s">
+        <v>760</v>
+      </c>
+      <c r="D352" t="s">
+        <v>832</v>
+      </c>
+      <c r="E352">
+        <v>1990</v>
+      </c>
+      <c r="F352" t="s">
+        <v>23</v>
+      </c>
+      <c r="G352" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <f t="shared" si="5"/>
+        <v>351</v>
+      </c>
+      <c r="B353" t="s">
+        <v>972</v>
+      </c>
+      <c r="C353" t="s">
+        <v>761</v>
+      </c>
+      <c r="D353" t="s">
+        <v>833</v>
+      </c>
+      <c r="E353">
+        <v>1990</v>
+      </c>
+      <c r="F353" t="s">
+        <v>23</v>
+      </c>
+      <c r="G353" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <f t="shared" si="5"/>
+        <v>352</v>
+      </c>
+      <c r="B354" t="s">
+        <v>973</v>
+      </c>
+      <c r="C354" t="s">
+        <v>762</v>
+      </c>
+      <c r="D354" t="s">
+        <v>834</v>
+      </c>
+      <c r="E354">
+        <v>1990</v>
+      </c>
+      <c r="F354" t="s">
+        <v>23</v>
+      </c>
+      <c r="G354" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <f t="shared" si="5"/>
+        <v>353</v>
+      </c>
+      <c r="B355" t="s">
+        <v>974</v>
+      </c>
+      <c r="C355" t="s">
+        <v>763</v>
+      </c>
+      <c r="D355" t="s">
+        <v>793</v>
+      </c>
+      <c r="E355">
+        <v>1990</v>
+      </c>
+      <c r="F355" t="s">
+        <v>23</v>
+      </c>
+      <c r="G355" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <f t="shared" si="5"/>
+        <v>354</v>
+      </c>
+      <c r="B356" t="s">
+        <v>975</v>
+      </c>
+      <c r="C356" t="s">
+        <v>764</v>
+      </c>
+      <c r="D356" t="s">
+        <v>139</v>
+      </c>
+      <c r="E356">
+        <v>1990</v>
+      </c>
+      <c r="F356" t="s">
+        <v>23</v>
+      </c>
+      <c r="G356" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <f t="shared" si="5"/>
+        <v>355</v>
+      </c>
+      <c r="B357" t="s">
+        <v>976</v>
+      </c>
+      <c r="C357" t="s">
+        <v>765</v>
+      </c>
+      <c r="D357" t="s">
+        <v>835</v>
+      </c>
+      <c r="E357">
+        <v>1990</v>
+      </c>
+      <c r="F357" t="s">
+        <v>23</v>
+      </c>
+      <c r="G357" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <f t="shared" si="5"/>
+        <v>356</v>
+      </c>
+      <c r="B358" t="s">
+        <v>977</v>
+      </c>
+      <c r="C358" t="s">
+        <v>766</v>
+      </c>
+      <c r="D358" t="s">
+        <v>801</v>
+      </c>
+      <c r="E358">
+        <v>1990</v>
+      </c>
+      <c r="F358" t="s">
+        <v>23</v>
+      </c>
+      <c r="G358" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <f t="shared" si="5"/>
+        <v>357</v>
+      </c>
+      <c r="B359" t="s">
+        <v>978</v>
+      </c>
+      <c r="C359" t="s">
+        <v>767</v>
+      </c>
+      <c r="D359" t="s">
+        <v>823</v>
+      </c>
+      <c r="E359">
+        <v>1990</v>
+      </c>
+      <c r="F359" t="s">
+        <v>23</v>
+      </c>
+      <c r="G359" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <f t="shared" si="5"/>
+        <v>358</v>
+      </c>
+      <c r="B360" t="s">
+        <v>979</v>
+      </c>
+      <c r="C360" t="s">
+        <v>768</v>
+      </c>
+      <c r="D360" t="s">
+        <v>786</v>
+      </c>
+      <c r="E360">
+        <v>1990</v>
+      </c>
+      <c r="F360" t="s">
+        <v>23</v>
+      </c>
+      <c r="G360" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <f t="shared" si="5"/>
+        <v>359</v>
+      </c>
+      <c r="B361" t="s">
+        <v>980</v>
+      </c>
+      <c r="C361" t="s">
+        <v>769</v>
+      </c>
+      <c r="D361" t="s">
+        <v>836</v>
+      </c>
+      <c r="E361">
+        <v>1990</v>
+      </c>
+      <c r="F361" t="s">
+        <v>23</v>
+      </c>
+      <c r="G361" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <f t="shared" si="5"/>
+        <v>360</v>
+      </c>
+      <c r="B362" t="s">
+        <v>981</v>
+      </c>
+      <c r="C362" t="s">
+        <v>770</v>
+      </c>
+      <c r="D362" t="s">
+        <v>837</v>
+      </c>
+      <c r="E362">
+        <v>1990</v>
+      </c>
+      <c r="F362" t="s">
+        <v>23</v>
+      </c>
+      <c r="G362" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <f t="shared" si="5"/>
+        <v>361</v>
+      </c>
+      <c r="B363" t="s">
+        <v>982</v>
+      </c>
+      <c r="C363" t="s">
+        <v>771</v>
+      </c>
+      <c r="D363" t="s">
+        <v>838</v>
+      </c>
+      <c r="E363">
+        <v>1990</v>
+      </c>
+      <c r="F363" t="s">
+        <v>23</v>
+      </c>
+      <c r="G363" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <f t="shared" si="5"/>
+        <v>362</v>
+      </c>
+      <c r="B364" t="s">
+        <v>983</v>
+      </c>
+      <c r="C364" t="s">
+        <v>772</v>
+      </c>
+      <c r="D364" t="s">
+        <v>839</v>
+      </c>
+      <c r="E364">
+        <v>1990</v>
+      </c>
+      <c r="F364" t="s">
+        <v>23</v>
+      </c>
+      <c r="G364" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <f t="shared" si="5"/>
+        <v>363</v>
+      </c>
+      <c r="B365" t="s">
+        <v>984</v>
+      </c>
+      <c r="C365" t="s">
+        <v>773</v>
+      </c>
+      <c r="D365" t="s">
+        <v>836</v>
+      </c>
+      <c r="E365">
+        <v>1990</v>
+      </c>
+      <c r="F365" t="s">
+        <v>23</v>
+      </c>
+      <c r="G365" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <f t="shared" si="5"/>
+        <v>364</v>
+      </c>
+      <c r="B366" t="s">
+        <v>985</v>
+      </c>
+      <c r="C366" t="s">
+        <v>774</v>
+      </c>
+      <c r="D366" t="s">
+        <v>806</v>
+      </c>
+      <c r="E366">
+        <v>1990</v>
+      </c>
+      <c r="F366" t="s">
+        <v>23</v>
+      </c>
+      <c r="G366" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <f t="shared" si="5"/>
+        <v>365</v>
+      </c>
+      <c r="B367" t="s">
+        <v>986</v>
+      </c>
+      <c r="C367" t="s">
+        <v>775</v>
+      </c>
+      <c r="D367" t="s">
+        <v>779</v>
+      </c>
+      <c r="E367">
+        <v>1990</v>
+      </c>
+      <c r="F367" t="s">
+        <v>23</v>
+      </c>
+      <c r="G367" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <f t="shared" si="5"/>
+        <v>366</v>
+      </c>
+      <c r="B368" t="s">
+        <v>987</v>
+      </c>
+      <c r="C368" t="s">
+        <v>776</v>
+      </c>
+      <c r="D368" t="s">
+        <v>818</v>
+      </c>
+      <c r="E368">
+        <v>1990</v>
+      </c>
+      <c r="F368" t="s">
+        <v>23</v>
+      </c>
+      <c r="G368" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <f t="shared" si="5"/>
+        <v>367</v>
+      </c>
+      <c r="B369" t="s">
+        <v>988</v>
+      </c>
+      <c r="C369" t="s">
+        <v>777</v>
+      </c>
+      <c r="D369" t="s">
+        <v>840</v>
+      </c>
+      <c r="E369">
+        <v>1990</v>
+      </c>
+      <c r="F369" t="s">
+        <v>23</v>
+      </c>
+      <c r="G369" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <f t="shared" si="5"/>
+        <v>368</v>
+      </c>
+      <c r="B370" t="s">
+        <v>989</v>
+      </c>
+      <c r="C370" t="s">
+        <v>841</v>
+      </c>
+      <c r="D370" t="s">
+        <v>841</v>
+      </c>
+      <c r="E370">
+        <v>1990</v>
+      </c>
+      <c r="F370" t="s">
+        <v>23</v>
+      </c>
+      <c r="G370" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <f t="shared" si="5"/>
+        <v>369</v>
+      </c>
+      <c r="B371" t="s">
+        <v>990</v>
+      </c>
+      <c r="C371" t="s">
+        <v>842</v>
+      </c>
+      <c r="D371" t="s">
+        <v>842</v>
+      </c>
+      <c r="E371">
+        <v>1990</v>
+      </c>
+      <c r="F371" t="s">
+        <v>23</v>
+      </c>
+      <c r="G371" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <f t="shared" si="5"/>
+        <v>370</v>
+      </c>
+      <c r="B372" t="s">
+        <v>991</v>
+      </c>
+      <c r="C372" t="s">
+        <v>843</v>
+      </c>
+      <c r="D372" t="s">
+        <v>843</v>
+      </c>
+      <c r="E372">
+        <v>1990</v>
+      </c>
+      <c r="F372" t="s">
+        <v>23</v>
+      </c>
+      <c r="G372" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <f t="shared" si="5"/>
+        <v>371</v>
+      </c>
+      <c r="B373" t="s">
+        <v>992</v>
+      </c>
+      <c r="C373" t="s">
+        <v>844</v>
+      </c>
+      <c r="D373" t="s">
+        <v>844</v>
+      </c>
+      <c r="E373">
+        <v>1990</v>
+      </c>
+      <c r="F373" t="s">
+        <v>23</v>
+      </c>
+      <c r="G373" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <f t="shared" si="5"/>
+        <v>372</v>
+      </c>
+      <c r="B374" t="s">
+        <v>993</v>
+      </c>
+      <c r="C374" t="s">
+        <v>845</v>
+      </c>
+      <c r="D374" t="s">
+        <v>845</v>
+      </c>
+      <c r="E374">
+        <v>1990</v>
+      </c>
+      <c r="F374" t="s">
+        <v>23</v>
+      </c>
+      <c r="G374" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <f t="shared" si="5"/>
+        <v>373</v>
+      </c>
+      <c r="B375" t="s">
+        <v>994</v>
+      </c>
+      <c r="C375" t="s">
+        <v>846</v>
+      </c>
+      <c r="D375" t="s">
+        <v>846</v>
+      </c>
+      <c r="E375">
+        <v>1990</v>
+      </c>
+      <c r="F375" t="s">
+        <v>23</v>
+      </c>
+      <c r="G375" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <f t="shared" si="5"/>
+        <v>374</v>
+      </c>
+      <c r="B376" t="s">
+        <v>995</v>
+      </c>
+      <c r="C376" t="s">
+        <v>847</v>
+      </c>
+      <c r="D376" t="s">
+        <v>847</v>
+      </c>
+      <c r="E376">
+        <v>1990</v>
+      </c>
+      <c r="F376" t="s">
+        <v>23</v>
+      </c>
+      <c r="G376" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <f t="shared" si="5"/>
+        <v>375</v>
+      </c>
+      <c r="B377" t="s">
+        <v>996</v>
+      </c>
+      <c r="C377" t="s">
+        <v>848</v>
+      </c>
+      <c r="D377" t="s">
+        <v>848</v>
+      </c>
+      <c r="E377">
+        <v>1990</v>
+      </c>
+      <c r="F377" t="s">
+        <v>23</v>
+      </c>
+      <c r="G377" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <f t="shared" si="5"/>
+        <v>376</v>
+      </c>
+      <c r="B378" t="s">
+        <v>997</v>
+      </c>
+      <c r="C378" t="s">
+        <v>849</v>
+      </c>
+      <c r="D378" t="s">
+        <v>849</v>
+      </c>
+      <c r="E378">
+        <v>1990</v>
+      </c>
+      <c r="F378" t="s">
+        <v>23</v>
+      </c>
+      <c r="G378" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <f t="shared" si="5"/>
+        <v>377</v>
+      </c>
+      <c r="B379" t="s">
+        <v>998</v>
+      </c>
+      <c r="C379" t="s">
+        <v>850</v>
+      </c>
+      <c r="D379" t="s">
+        <v>850</v>
+      </c>
+      <c r="E379">
+        <v>1990</v>
+      </c>
+      <c r="F379" t="s">
+        <v>23</v>
+      </c>
+      <c r="G379" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <f t="shared" si="5"/>
+        <v>378</v>
+      </c>
+      <c r="B380" t="s">
+        <v>999</v>
+      </c>
+      <c r="C380" t="s">
+        <v>851</v>
+      </c>
+      <c r="D380" t="s">
+        <v>851</v>
+      </c>
+      <c r="E380">
+        <v>1990</v>
+      </c>
+      <c r="F380" t="s">
+        <v>23</v>
+      </c>
+      <c r="G380" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <f t="shared" si="5"/>
+        <v>379</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C381" t="s">
+        <v>852</v>
+      </c>
+      <c r="D381" t="s">
+        <v>852</v>
+      </c>
+      <c r="E381">
+        <v>1990</v>
+      </c>
+      <c r="F381" t="s">
+        <v>23</v>
+      </c>
+      <c r="G381" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <f t="shared" si="5"/>
+        <v>380</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C382" t="s">
+        <v>853</v>
+      </c>
+      <c r="D382" t="s">
+        <v>853</v>
+      </c>
+      <c r="E382">
+        <v>1990</v>
+      </c>
+      <c r="F382" t="s">
+        <v>23</v>
+      </c>
+      <c r="G382" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <f t="shared" si="5"/>
+        <v>381</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C383" t="s">
+        <v>854</v>
+      </c>
+      <c r="D383" t="s">
+        <v>854</v>
+      </c>
+      <c r="E383">
+        <v>1990</v>
+      </c>
+      <c r="F383" t="s">
+        <v>23</v>
+      </c>
+      <c r="G383" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <f t="shared" si="5"/>
+        <v>382</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C384" t="s">
+        <v>855</v>
+      </c>
+      <c r="D384" t="s">
+        <v>855</v>
+      </c>
+      <c r="E384">
+        <v>1990</v>
+      </c>
+      <c r="F384" t="s">
+        <v>23</v>
+      </c>
+      <c r="G384" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <f t="shared" si="5"/>
+        <v>383</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C385" t="s">
+        <v>856</v>
+      </c>
+      <c r="D385" t="s">
+        <v>856</v>
+      </c>
+      <c r="E385">
+        <v>1990</v>
+      </c>
+      <c r="F385" t="s">
+        <v>23</v>
+      </c>
+      <c r="G385" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <f t="shared" si="5"/>
+        <v>384</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C386" t="s">
+        <v>857</v>
+      </c>
+      <c r="D386" t="s">
+        <v>857</v>
+      </c>
+      <c r="E386">
+        <v>1990</v>
+      </c>
+      <c r="F386" t="s">
+        <v>23</v>
+      </c>
+      <c r="G386" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <f t="shared" si="5"/>
+        <v>385</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C387" t="s">
+        <v>858</v>
+      </c>
+      <c r="D387" t="s">
+        <v>858</v>
+      </c>
+      <c r="E387">
+        <v>1990</v>
+      </c>
+      <c r="F387" t="s">
+        <v>23</v>
+      </c>
+      <c r="G387" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <f t="shared" si="5"/>
+        <v>386</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C388" t="s">
+        <v>859</v>
+      </c>
+      <c r="D388" t="s">
+        <v>859</v>
+      </c>
+      <c r="E388">
+        <v>1990</v>
+      </c>
+      <c r="F388" t="s">
+        <v>23</v>
+      </c>
+      <c r="G388" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <f t="shared" si="5"/>
+        <v>387</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C389" t="s">
+        <v>860</v>
+      </c>
+      <c r="D389" t="s">
+        <v>860</v>
+      </c>
+      <c r="E389">
+        <v>1990</v>
+      </c>
+      <c r="F389" t="s">
+        <v>23</v>
+      </c>
+      <c r="G389" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <f t="shared" si="5"/>
+        <v>388</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C390" t="s">
+        <v>861</v>
+      </c>
+      <c r="D390" t="s">
+        <v>861</v>
+      </c>
+      <c r="E390">
+        <v>1990</v>
+      </c>
+      <c r="F390" t="s">
+        <v>23</v>
+      </c>
+      <c r="G390" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <f t="shared" si="5"/>
+        <v>389</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C391" t="s">
+        <v>862</v>
+      </c>
+      <c r="D391" t="s">
+        <v>862</v>
+      </c>
+      <c r="E391">
+        <v>1990</v>
+      </c>
+      <c r="F391" t="s">
+        <v>23</v>
+      </c>
+      <c r="G391" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <f t="shared" si="5"/>
+        <v>390</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C392" t="s">
+        <v>863</v>
+      </c>
+      <c r="D392" t="s">
+        <v>863</v>
+      </c>
+      <c r="E392">
+        <v>1990</v>
+      </c>
+      <c r="F392" t="s">
+        <v>23</v>
+      </c>
+      <c r="G392" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <f t="shared" ref="A393:A394" si="6">A392+1</f>
+        <v>391</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C393" t="s">
+        <v>864</v>
+      </c>
+      <c r="D393" t="s">
+        <v>864</v>
+      </c>
+      <c r="E393">
+        <v>1990</v>
+      </c>
+      <c r="F393" t="s">
+        <v>23</v>
+      </c>
+      <c r="G393" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <f t="shared" si="6"/>
+        <v>392</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C394" t="s">
+        <v>865</v>
+      </c>
+      <c r="D394" t="s">
+        <v>865</v>
+      </c>
+      <c r="E394">
+        <v>1990</v>
+      </c>
+      <c r="F394" t="s">
+        <v>23</v>
+      </c>
+      <c r="G394" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -9517,387 +13156,387 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>474</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>476</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>478</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>479</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>480</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>481</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>482</v>
+        <v>449</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>483</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>484</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>485</v>
+        <v>452</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>486</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>487</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>488</v>
+        <v>455</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>489</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>490</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>472</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>491</v>
+        <v>458</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>492</v>
+        <v>459</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>493</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>494</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>495</v>
+        <v>462</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>496</v>
+        <v>463</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>497</v>
+        <v>464</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>498</v>
+        <v>465</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>499</v>
+        <v>466</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>500</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>501</v>
+        <v>468</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>502</v>
+        <v>469</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>503</v>
+        <v>470</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>505</v>
+        <v>472</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>506</v>
+        <v>473</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>507</v>
+        <v>474</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>508</v>
+        <v>475</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>509</v>
+        <v>476</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>510</v>
+        <v>477</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>511</v>
+        <v>478</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>514</v>
+        <v>481</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>515</v>
+        <v>482</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>516</v>
+        <v>483</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>517</v>
+        <v>484</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>518</v>
+        <v>485</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>519</v>
+        <v>486</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>520</v>
+        <v>487</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>521</v>
+        <v>488</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>523</v>
+        <v>490</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>524</v>
+        <v>491</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>525</v>
+        <v>492</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>526</v>
+        <v>493</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>527</v>
+        <v>494</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>528</v>
+        <v>495</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>529</v>
+        <v>496</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>530</v>
+        <v>497</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>531</v>
+        <v>498</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>532</v>
+        <v>499</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>533</v>
+        <v>500</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>534</v>
+        <v>501</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>535</v>
+        <v>502</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>536</v>
+        <v>503</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>537</v>
+        <v>504</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>538</v>
+        <v>505</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>539</v>
+        <v>506</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>540</v>
+        <v>507</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>541</v>
+        <v>508</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>542</v>
+        <v>509</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>543</v>
+        <v>510</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>544</v>
+        <v>511</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>545</v>
+        <v>512</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>546</v>
+        <v>513</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>547</v>
+        <v>514</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>548</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="1014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="1042">
   <si>
     <t>SongTitle</t>
   </si>
@@ -3070,19 +3070,108 @@
   </si>
   <si>
     <t>westworld</t>
+  </si>
+  <si>
+    <t>always_sunny</t>
+  </si>
+  <si>
+    <t>curb_your_enthusiasm</t>
+  </si>
+  <si>
+    <t>dexter</t>
+  </si>
+  <si>
+    <t>eight_simple_rules</t>
+  </si>
+  <si>
+    <t>happy_days</t>
+  </si>
+  <si>
+    <t>sabrina_teenage_witch</t>
+  </si>
+  <si>
+    <t>seventh_heaven</t>
+  </si>
+  <si>
+    <t>smart_guy</t>
+  </si>
+  <si>
+    <t>terra_nova</t>
+  </si>
+  <si>
+    <t>that_seventy_show</t>
+  </si>
+  <si>
+    <t>the_flash</t>
+  </si>
+  <si>
+    <t>the_office</t>
+  </si>
+  <si>
+    <t>third_rock_from_the_sun</t>
+  </si>
+  <si>
+    <t>thirty_rock</t>
+  </si>
+  <si>
+    <t>Its Always Sunny In Philadelphia</t>
+  </si>
+  <si>
+    <t>Curb Your Enthusiasm</t>
+  </si>
+  <si>
+    <t>Dexter</t>
+  </si>
+  <si>
+    <t>8 Simple Rules for Dating My Daughter</t>
+  </si>
+  <si>
+    <t>Happy Days</t>
+  </si>
+  <si>
+    <t>Sabrina The Teenage Witch</t>
+  </si>
+  <si>
+    <t>7th Heaven</t>
+  </si>
+  <si>
+    <t>Smart Guy</t>
+  </si>
+  <si>
+    <t>Terra Nova</t>
+  </si>
+  <si>
+    <t>That 70s Show</t>
+  </si>
+  <si>
+    <t>The Flash</t>
+  </si>
+  <si>
+    <t>The Office</t>
+  </si>
+  <si>
+    <t>3rd Rock From The Sun</t>
+  </si>
+  <si>
+    <t>30 Rock</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3105,8 +3194,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3422,11 +3512,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O394"/>
+  <dimension ref="A1:O408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A354" workbookViewId="0">
-      <selection activeCell="B394" sqref="B394"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13093,7 +13181,7 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393">
-        <f t="shared" ref="A393:A394" si="6">A392+1</f>
+        <f t="shared" ref="A393:A408" si="6">A392+1</f>
         <v>391</v>
       </c>
       <c r="B393" t="s">
@@ -13136,6 +13224,342 @@
         <v>23</v>
       </c>
       <c r="G394" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <f t="shared" si="6"/>
+        <v>393</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C395" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D395" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E395">
+        <v>1990</v>
+      </c>
+      <c r="F395" t="s">
+        <v>23</v>
+      </c>
+      <c r="G395" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <f t="shared" si="6"/>
+        <v>394</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C396" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D396" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E396">
+        <v>1990</v>
+      </c>
+      <c r="F396" t="s">
+        <v>23</v>
+      </c>
+      <c r="G396" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <f t="shared" si="6"/>
+        <v>395</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D397" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E397">
+        <v>1990</v>
+      </c>
+      <c r="F397" t="s">
+        <v>23</v>
+      </c>
+      <c r="G397" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <f t="shared" si="6"/>
+        <v>396</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C398" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D398" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E398">
+        <v>1990</v>
+      </c>
+      <c r="F398" t="s">
+        <v>23</v>
+      </c>
+      <c r="G398" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <f t="shared" si="6"/>
+        <v>397</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C399" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D399" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E399">
+        <v>1990</v>
+      </c>
+      <c r="F399" t="s">
+        <v>23</v>
+      </c>
+      <c r="G399" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <f t="shared" si="6"/>
+        <v>398</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C400" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D400" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E400">
+        <v>1990</v>
+      </c>
+      <c r="F400" t="s">
+        <v>23</v>
+      </c>
+      <c r="G400" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <f t="shared" si="6"/>
+        <v>399</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C401" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D401" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E401">
+        <v>1990</v>
+      </c>
+      <c r="F401" t="s">
+        <v>23</v>
+      </c>
+      <c r="G401" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C402" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D402" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E402">
+        <v>1990</v>
+      </c>
+      <c r="F402" t="s">
+        <v>23</v>
+      </c>
+      <c r="G402" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <f t="shared" si="6"/>
+        <v>401</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C403" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D403" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E403">
+        <v>1990</v>
+      </c>
+      <c r="F403" t="s">
+        <v>23</v>
+      </c>
+      <c r="G403" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <f t="shared" si="6"/>
+        <v>402</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C404" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D404" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E404">
+        <v>1990</v>
+      </c>
+      <c r="F404" t="s">
+        <v>23</v>
+      </c>
+      <c r="G404" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <f t="shared" si="6"/>
+        <v>403</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C405" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D405" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E405">
+        <v>1990</v>
+      </c>
+      <c r="F405" t="s">
+        <v>23</v>
+      </c>
+      <c r="G405" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <f t="shared" si="6"/>
+        <v>404</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C406" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D406" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E406">
+        <v>1990</v>
+      </c>
+      <c r="F406" t="s">
+        <v>23</v>
+      </c>
+      <c r="G406" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <f t="shared" si="6"/>
+        <v>405</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C407" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D407" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E407">
+        <v>1990</v>
+      </c>
+      <c r="F407" t="s">
+        <v>23</v>
+      </c>
+      <c r="G407" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <f t="shared" si="6"/>
+        <v>406</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C408" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D408" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E408">
+        <v>1990</v>
+      </c>
+      <c r="F408" t="s">
+        <v>23</v>
+      </c>
+      <c r="G408" t="s">
         <v>433</v>
       </c>
     </row>
